--- a/_data/DOTUSDT_30m.xlsx
+++ b/_data/DOTUSDT_30m.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1670"/>
+  <dimension ref="A1:F1928"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33801,6 +33801,5166 @@
         <v>18133.07</v>
       </c>
     </row>
+    <row r="1671" spans="1:6">
+      <c r="A1671" s="2">
+        <v>45534.45833333334</v>
+      </c>
+      <c r="B1671">
+        <v>4.296</v>
+      </c>
+      <c r="C1671">
+        <v>4.307</v>
+      </c>
+      <c r="D1671">
+        <v>4.285</v>
+      </c>
+      <c r="E1671">
+        <v>4.301</v>
+      </c>
+      <c r="F1671">
+        <v>19440.83</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:6">
+      <c r="A1672" s="2">
+        <v>45534.47916666666</v>
+      </c>
+      <c r="B1672">
+        <v>4.301</v>
+      </c>
+      <c r="C1672">
+        <v>4.302</v>
+      </c>
+      <c r="D1672">
+        <v>4.272</v>
+      </c>
+      <c r="E1672">
+        <v>4.272</v>
+      </c>
+      <c r="F1672">
+        <v>31211.71</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:6">
+      <c r="A1673" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1673">
+        <v>4.272</v>
+      </c>
+      <c r="C1673">
+        <v>4.297</v>
+      </c>
+      <c r="D1673">
+        <v>4.271</v>
+      </c>
+      <c r="E1673">
+        <v>4.288</v>
+      </c>
+      <c r="F1673">
+        <v>23094.69</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:6">
+      <c r="A1674" s="2">
+        <v>45534.52083333334</v>
+      </c>
+      <c r="B1674">
+        <v>4.287</v>
+      </c>
+      <c r="C1674">
+        <v>4.314</v>
+      </c>
+      <c r="D1674">
+        <v>4.279</v>
+      </c>
+      <c r="E1674">
+        <v>4.288</v>
+      </c>
+      <c r="F1674">
+        <v>63881.31</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:6">
+      <c r="A1675" s="2">
+        <v>45534.54166666666</v>
+      </c>
+      <c r="B1675">
+        <v>4.288</v>
+      </c>
+      <c r="C1675">
+        <v>4.295</v>
+      </c>
+      <c r="D1675">
+        <v>4.273</v>
+      </c>
+      <c r="E1675">
+        <v>4.282</v>
+      </c>
+      <c r="F1675">
+        <v>30182.44</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:6">
+      <c r="A1676" s="2">
+        <v>45534.5625</v>
+      </c>
+      <c r="B1676">
+        <v>4.282</v>
+      </c>
+      <c r="C1676">
+        <v>4.29</v>
+      </c>
+      <c r="D1676">
+        <v>4.234</v>
+      </c>
+      <c r="E1676">
+        <v>4.285</v>
+      </c>
+      <c r="F1676">
+        <v>104529.03</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:6">
+      <c r="A1677" s="2">
+        <v>45534.58333333334</v>
+      </c>
+      <c r="B1677">
+        <v>4.287</v>
+      </c>
+      <c r="C1677">
+        <v>4.302</v>
+      </c>
+      <c r="D1677">
+        <v>4.246</v>
+      </c>
+      <c r="E1677">
+        <v>4.264</v>
+      </c>
+      <c r="F1677">
+        <v>52750.23</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:6">
+      <c r="A1678" s="2">
+        <v>45534.60416666666</v>
+      </c>
+      <c r="B1678">
+        <v>4.264</v>
+      </c>
+      <c r="C1678">
+        <v>4.265</v>
+      </c>
+      <c r="D1678">
+        <v>4.179</v>
+      </c>
+      <c r="E1678">
+        <v>4.18</v>
+      </c>
+      <c r="F1678">
+        <v>134632.76</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:6">
+      <c r="A1679" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="B1679">
+        <v>4.179</v>
+      </c>
+      <c r="C1679">
+        <v>4.197</v>
+      </c>
+      <c r="D1679">
+        <v>4.128</v>
+      </c>
+      <c r="E1679">
+        <v>4.151</v>
+      </c>
+      <c r="F1679">
+        <v>305379.84</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:6">
+      <c r="A1680" s="2">
+        <v>45534.64583333334</v>
+      </c>
+      <c r="B1680">
+        <v>4.152</v>
+      </c>
+      <c r="C1680">
+        <v>4.165</v>
+      </c>
+      <c r="D1680">
+        <v>4.101</v>
+      </c>
+      <c r="E1680">
+        <v>4.12</v>
+      </c>
+      <c r="F1680">
+        <v>190464.9</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:6">
+      <c r="A1681" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1681">
+        <v>4.121</v>
+      </c>
+      <c r="C1681">
+        <v>4.17</v>
+      </c>
+      <c r="D1681">
+        <v>4.103</v>
+      </c>
+      <c r="E1681">
+        <v>4.146</v>
+      </c>
+      <c r="F1681">
+        <v>230561.87</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:6">
+      <c r="A1682" s="2">
+        <v>45534.6875</v>
+      </c>
+      <c r="B1682">
+        <v>4.143</v>
+      </c>
+      <c r="C1682">
+        <v>4.196</v>
+      </c>
+      <c r="D1682">
+        <v>4.133</v>
+      </c>
+      <c r="E1682">
+        <v>4.194</v>
+      </c>
+      <c r="F1682">
+        <v>67419.99000000001</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:6">
+      <c r="A1683" s="2">
+        <v>45534.70833333334</v>
+      </c>
+      <c r="B1683">
+        <v>4.193</v>
+      </c>
+      <c r="C1683">
+        <v>4.207</v>
+      </c>
+      <c r="D1683">
+        <v>4.178</v>
+      </c>
+      <c r="E1683">
+        <v>4.199</v>
+      </c>
+      <c r="F1683">
+        <v>42078.87</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:6">
+      <c r="A1684" s="2">
+        <v>45534.72916666666</v>
+      </c>
+      <c r="B1684">
+        <v>4.2</v>
+      </c>
+      <c r="C1684">
+        <v>4.221</v>
+      </c>
+      <c r="D1684">
+        <v>4.187</v>
+      </c>
+      <c r="E1684">
+        <v>4.208</v>
+      </c>
+      <c r="F1684">
+        <v>44426.81</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:6">
+      <c r="A1685" s="2">
+        <v>45534.75</v>
+      </c>
+      <c r="B1685">
+        <v>4.209</v>
+      </c>
+      <c r="C1685">
+        <v>4.246</v>
+      </c>
+      <c r="D1685">
+        <v>4.202</v>
+      </c>
+      <c r="E1685">
+        <v>4.246</v>
+      </c>
+      <c r="F1685">
+        <v>85365.67999999999</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:6">
+      <c r="A1686" s="2">
+        <v>45534.77083333334</v>
+      </c>
+      <c r="B1686">
+        <v>4.247</v>
+      </c>
+      <c r="C1686">
+        <v>4.276</v>
+      </c>
+      <c r="D1686">
+        <v>4.231</v>
+      </c>
+      <c r="E1686">
+        <v>4.263</v>
+      </c>
+      <c r="F1686">
+        <v>99869.17</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:6">
+      <c r="A1687" s="2">
+        <v>45534.79166666666</v>
+      </c>
+      <c r="B1687">
+        <v>4.263</v>
+      </c>
+      <c r="C1687">
+        <v>4.263</v>
+      </c>
+      <c r="D1687">
+        <v>4.23</v>
+      </c>
+      <c r="E1687">
+        <v>4.241</v>
+      </c>
+      <c r="F1687">
+        <v>53209.94</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:6">
+      <c r="A1688" s="2">
+        <v>45534.8125</v>
+      </c>
+      <c r="B1688">
+        <v>4.241</v>
+      </c>
+      <c r="C1688">
+        <v>4.242</v>
+      </c>
+      <c r="D1688">
+        <v>4.214</v>
+      </c>
+      <c r="E1688">
+        <v>4.223</v>
+      </c>
+      <c r="F1688">
+        <v>30138.7</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:6">
+      <c r="A1689" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1689">
+        <v>4.222</v>
+      </c>
+      <c r="C1689">
+        <v>4.241</v>
+      </c>
+      <c r="D1689">
+        <v>4.222</v>
+      </c>
+      <c r="E1689">
+        <v>4.233</v>
+      </c>
+      <c r="F1689">
+        <v>28479.69</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:6">
+      <c r="A1690" s="2">
+        <v>45534.85416666666</v>
+      </c>
+      <c r="B1690">
+        <v>4.235</v>
+      </c>
+      <c r="C1690">
+        <v>4.244</v>
+      </c>
+      <c r="D1690">
+        <v>4.225</v>
+      </c>
+      <c r="E1690">
+        <v>4.244</v>
+      </c>
+      <c r="F1690">
+        <v>19461.99</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:6">
+      <c r="A1691" s="2">
+        <v>45534.875</v>
+      </c>
+      <c r="B1691">
+        <v>4.244</v>
+      </c>
+      <c r="C1691">
+        <v>4.256</v>
+      </c>
+      <c r="D1691">
+        <v>4.243</v>
+      </c>
+      <c r="E1691">
+        <v>4.251</v>
+      </c>
+      <c r="F1691">
+        <v>14142.07</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:6">
+      <c r="A1692" s="2">
+        <v>45534.89583333334</v>
+      </c>
+      <c r="B1692">
+        <v>4.251</v>
+      </c>
+      <c r="C1692">
+        <v>4.255</v>
+      </c>
+      <c r="D1692">
+        <v>4.243</v>
+      </c>
+      <c r="E1692">
+        <v>4.248</v>
+      </c>
+      <c r="F1692">
+        <v>20593.14</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:6">
+      <c r="A1693" s="2">
+        <v>45534.91666666666</v>
+      </c>
+      <c r="B1693">
+        <v>4.249</v>
+      </c>
+      <c r="C1693">
+        <v>4.278</v>
+      </c>
+      <c r="D1693">
+        <v>4.249</v>
+      </c>
+      <c r="E1693">
+        <v>4.269</v>
+      </c>
+      <c r="F1693">
+        <v>52263.22</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:6">
+      <c r="A1694" s="2">
+        <v>45534.9375</v>
+      </c>
+      <c r="B1694">
+        <v>4.272</v>
+      </c>
+      <c r="C1694">
+        <v>4.278</v>
+      </c>
+      <c r="D1694">
+        <v>4.262</v>
+      </c>
+      <c r="E1694">
+        <v>4.271</v>
+      </c>
+      <c r="F1694">
+        <v>26542.61</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:6">
+      <c r="A1695" s="2">
+        <v>45534.95833333334</v>
+      </c>
+      <c r="B1695">
+        <v>4.271</v>
+      </c>
+      <c r="C1695">
+        <v>4.284</v>
+      </c>
+      <c r="D1695">
+        <v>4.265</v>
+      </c>
+      <c r="E1695">
+        <v>4.283</v>
+      </c>
+      <c r="F1695">
+        <v>19697.5</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:6">
+      <c r="A1696" s="2">
+        <v>45534.97916666666</v>
+      </c>
+      <c r="B1696">
+        <v>4.283</v>
+      </c>
+      <c r="C1696">
+        <v>4.291</v>
+      </c>
+      <c r="D1696">
+        <v>4.275</v>
+      </c>
+      <c r="E1696">
+        <v>4.277</v>
+      </c>
+      <c r="F1696">
+        <v>24887.12</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:6">
+      <c r="A1697" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1697">
+        <v>4.277</v>
+      </c>
+      <c r="C1697">
+        <v>4.3</v>
+      </c>
+      <c r="D1697">
+        <v>4.276</v>
+      </c>
+      <c r="E1697">
+        <v>4.295</v>
+      </c>
+      <c r="F1697">
+        <v>37322.48</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:6">
+      <c r="A1698" s="2">
+        <v>45535.02083333334</v>
+      </c>
+      <c r="B1698">
+        <v>4.297</v>
+      </c>
+      <c r="C1698">
+        <v>4.313</v>
+      </c>
+      <c r="D1698">
+        <v>4.292</v>
+      </c>
+      <c r="E1698">
+        <v>4.295</v>
+      </c>
+      <c r="F1698">
+        <v>29393.8</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:6">
+      <c r="A1699" s="2">
+        <v>45535.04166666666</v>
+      </c>
+      <c r="B1699">
+        <v>4.294</v>
+      </c>
+      <c r="C1699">
+        <v>4.305</v>
+      </c>
+      <c r="D1699">
+        <v>4.284</v>
+      </c>
+      <c r="E1699">
+        <v>4.299</v>
+      </c>
+      <c r="F1699">
+        <v>9045.459999999999</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:6">
+      <c r="A1700" s="2">
+        <v>45535.0625</v>
+      </c>
+      <c r="B1700">
+        <v>4.299</v>
+      </c>
+      <c r="C1700">
+        <v>4.302</v>
+      </c>
+      <c r="D1700">
+        <v>4.287</v>
+      </c>
+      <c r="E1700">
+        <v>4.294</v>
+      </c>
+      <c r="F1700">
+        <v>30073.24</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:6">
+      <c r="A1701" s="2">
+        <v>45535.08333333334</v>
+      </c>
+      <c r="B1701">
+        <v>4.294</v>
+      </c>
+      <c r="C1701">
+        <v>4.294</v>
+      </c>
+      <c r="D1701">
+        <v>4.277</v>
+      </c>
+      <c r="E1701">
+        <v>4.287</v>
+      </c>
+      <c r="F1701">
+        <v>18479.3</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:6">
+      <c r="A1702" s="2">
+        <v>45535.10416666666</v>
+      </c>
+      <c r="B1702">
+        <v>4.288</v>
+      </c>
+      <c r="C1702">
+        <v>4.299</v>
+      </c>
+      <c r="D1702">
+        <v>4.285</v>
+      </c>
+      <c r="E1702">
+        <v>4.291</v>
+      </c>
+      <c r="F1702">
+        <v>23992.57</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:6">
+      <c r="A1703" s="2">
+        <v>45535.125</v>
+      </c>
+      <c r="B1703">
+        <v>4.292</v>
+      </c>
+      <c r="C1703">
+        <v>4.3</v>
+      </c>
+      <c r="D1703">
+        <v>4.286</v>
+      </c>
+      <c r="E1703">
+        <v>4.298</v>
+      </c>
+      <c r="F1703">
+        <v>22804.84</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:6">
+      <c r="A1704" s="2">
+        <v>45535.14583333334</v>
+      </c>
+      <c r="B1704">
+        <v>4.298</v>
+      </c>
+      <c r="C1704">
+        <v>4.306</v>
+      </c>
+      <c r="D1704">
+        <v>4.293</v>
+      </c>
+      <c r="E1704">
+        <v>4.293</v>
+      </c>
+      <c r="F1704">
+        <v>34556.76</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:6">
+      <c r="A1705" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1705">
+        <v>4.294</v>
+      </c>
+      <c r="C1705">
+        <v>4.314</v>
+      </c>
+      <c r="D1705">
+        <v>4.293</v>
+      </c>
+      <c r="E1705">
+        <v>4.312</v>
+      </c>
+      <c r="F1705">
+        <v>27097.25</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:6">
+      <c r="A1706" s="2">
+        <v>45535.1875</v>
+      </c>
+      <c r="B1706">
+        <v>4.312</v>
+      </c>
+      <c r="C1706">
+        <v>4.315</v>
+      </c>
+      <c r="D1706">
+        <v>4.304</v>
+      </c>
+      <c r="E1706">
+        <v>4.314</v>
+      </c>
+      <c r="F1706">
+        <v>29873.89</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:6">
+      <c r="A1707" s="2">
+        <v>45535.20833333334</v>
+      </c>
+      <c r="B1707">
+        <v>4.313</v>
+      </c>
+      <c r="C1707">
+        <v>4.315</v>
+      </c>
+      <c r="D1707">
+        <v>4.301</v>
+      </c>
+      <c r="E1707">
+        <v>4.305</v>
+      </c>
+      <c r="F1707">
+        <v>29435.22</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:6">
+      <c r="A1708" s="2">
+        <v>45535.22916666666</v>
+      </c>
+      <c r="B1708">
+        <v>4.305</v>
+      </c>
+      <c r="C1708">
+        <v>4.318</v>
+      </c>
+      <c r="D1708">
+        <v>4.293</v>
+      </c>
+      <c r="E1708">
+        <v>4.293</v>
+      </c>
+      <c r="F1708">
+        <v>43218.94</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:6">
+      <c r="A1709" s="2">
+        <v>45535.25</v>
+      </c>
+      <c r="B1709">
+        <v>4.292</v>
+      </c>
+      <c r="C1709">
+        <v>4.3</v>
+      </c>
+      <c r="D1709">
+        <v>4.29</v>
+      </c>
+      <c r="E1709">
+        <v>4.295</v>
+      </c>
+      <c r="F1709">
+        <v>17363.92</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:6">
+      <c r="A1710" s="2">
+        <v>45535.27083333334</v>
+      </c>
+      <c r="B1710">
+        <v>4.295</v>
+      </c>
+      <c r="C1710">
+        <v>4.3</v>
+      </c>
+      <c r="D1710">
+        <v>4.292</v>
+      </c>
+      <c r="E1710">
+        <v>4.297</v>
+      </c>
+      <c r="F1710">
+        <v>38343.8</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:6">
+      <c r="A1711" s="2">
+        <v>45535.29166666666</v>
+      </c>
+      <c r="B1711">
+        <v>4.298</v>
+      </c>
+      <c r="C1711">
+        <v>4.3</v>
+      </c>
+      <c r="D1711">
+        <v>4.29</v>
+      </c>
+      <c r="E1711">
+        <v>4.29</v>
+      </c>
+      <c r="F1711">
+        <v>15943.74</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:6">
+      <c r="A1712" s="2">
+        <v>45535.3125</v>
+      </c>
+      <c r="B1712">
+        <v>4.291</v>
+      </c>
+      <c r="C1712">
+        <v>4.299</v>
+      </c>
+      <c r="D1712">
+        <v>4.288</v>
+      </c>
+      <c r="E1712">
+        <v>4.289</v>
+      </c>
+      <c r="F1712">
+        <v>22305.24</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:6">
+      <c r="A1713" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1713">
+        <v>4.288</v>
+      </c>
+      <c r="C1713">
+        <v>4.295</v>
+      </c>
+      <c r="D1713">
+        <v>4.283</v>
+      </c>
+      <c r="E1713">
+        <v>4.293</v>
+      </c>
+      <c r="F1713">
+        <v>11328.32</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:6">
+      <c r="A1714" s="2">
+        <v>45535.35416666666</v>
+      </c>
+      <c r="B1714">
+        <v>4.293</v>
+      </c>
+      <c r="C1714">
+        <v>4.295</v>
+      </c>
+      <c r="D1714">
+        <v>4.27</v>
+      </c>
+      <c r="E1714">
+        <v>4.27</v>
+      </c>
+      <c r="F1714">
+        <v>32413.81</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:6">
+      <c r="A1715" s="2">
+        <v>45535.375</v>
+      </c>
+      <c r="B1715">
+        <v>4.27</v>
+      </c>
+      <c r="C1715">
+        <v>4.284</v>
+      </c>
+      <c r="D1715">
+        <v>4.263</v>
+      </c>
+      <c r="E1715">
+        <v>4.272</v>
+      </c>
+      <c r="F1715">
+        <v>34928.67</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:6">
+      <c r="A1716" s="2">
+        <v>45535.39583333334</v>
+      </c>
+      <c r="B1716">
+        <v>4.273</v>
+      </c>
+      <c r="C1716">
+        <v>4.276</v>
+      </c>
+      <c r="D1716">
+        <v>4.259</v>
+      </c>
+      <c r="E1716">
+        <v>4.266</v>
+      </c>
+      <c r="F1716">
+        <v>24548.74</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:6">
+      <c r="A1717" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="B1717">
+        <v>4.266</v>
+      </c>
+      <c r="C1717">
+        <v>4.291</v>
+      </c>
+      <c r="D1717">
+        <v>4.265</v>
+      </c>
+      <c r="E1717">
+        <v>4.276</v>
+      </c>
+      <c r="F1717">
+        <v>19457.45</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:6">
+      <c r="A1718" s="2">
+        <v>45535.4375</v>
+      </c>
+      <c r="B1718">
+        <v>4.275</v>
+      </c>
+      <c r="C1718">
+        <v>4.294</v>
+      </c>
+      <c r="D1718">
+        <v>4.274</v>
+      </c>
+      <c r="E1718">
+        <v>4.288</v>
+      </c>
+      <c r="F1718">
+        <v>16715.37</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:6">
+      <c r="A1719" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="B1719">
+        <v>4.289</v>
+      </c>
+      <c r="C1719">
+        <v>4.299</v>
+      </c>
+      <c r="D1719">
+        <v>4.283</v>
+      </c>
+      <c r="E1719">
+        <v>4.287</v>
+      </c>
+      <c r="F1719">
+        <v>17216.27</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:6">
+      <c r="A1720" s="2">
+        <v>45535.47916666666</v>
+      </c>
+      <c r="B1720">
+        <v>4.288</v>
+      </c>
+      <c r="C1720">
+        <v>4.294</v>
+      </c>
+      <c r="D1720">
+        <v>4.282</v>
+      </c>
+      <c r="E1720">
+        <v>4.287</v>
+      </c>
+      <c r="F1720">
+        <v>8422.91</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:6">
+      <c r="A1721" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1721">
+        <v>4.286</v>
+      </c>
+      <c r="C1721">
+        <v>4.288</v>
+      </c>
+      <c r="D1721">
+        <v>4.274</v>
+      </c>
+      <c r="E1721">
+        <v>4.282</v>
+      </c>
+      <c r="F1721">
+        <v>6693.85</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:6">
+      <c r="A1722" s="2">
+        <v>45535.52083333334</v>
+      </c>
+      <c r="B1722">
+        <v>4.282</v>
+      </c>
+      <c r="C1722">
+        <v>4.284</v>
+      </c>
+      <c r="D1722">
+        <v>4.275</v>
+      </c>
+      <c r="E1722">
+        <v>4.28</v>
+      </c>
+      <c r="F1722">
+        <v>12908.91</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:6">
+      <c r="A1723" s="2">
+        <v>45535.54166666666</v>
+      </c>
+      <c r="B1723">
+        <v>4.28</v>
+      </c>
+      <c r="C1723">
+        <v>4.288</v>
+      </c>
+      <c r="D1723">
+        <v>4.274</v>
+      </c>
+      <c r="E1723">
+        <v>4.279</v>
+      </c>
+      <c r="F1723">
+        <v>34039.24</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:6">
+      <c r="A1724" s="2">
+        <v>45535.5625</v>
+      </c>
+      <c r="B1724">
+        <v>4.279</v>
+      </c>
+      <c r="C1724">
+        <v>4.282</v>
+      </c>
+      <c r="D1724">
+        <v>4.254</v>
+      </c>
+      <c r="E1724">
+        <v>4.257</v>
+      </c>
+      <c r="F1724">
+        <v>60614.87</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:6">
+      <c r="A1725" s="2">
+        <v>45535.58333333334</v>
+      </c>
+      <c r="B1725">
+        <v>4.256</v>
+      </c>
+      <c r="C1725">
+        <v>4.272</v>
+      </c>
+      <c r="D1725">
+        <v>4.25</v>
+      </c>
+      <c r="E1725">
+        <v>4.269</v>
+      </c>
+      <c r="F1725">
+        <v>26754.74</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:6">
+      <c r="A1726" s="2">
+        <v>45535.60416666666</v>
+      </c>
+      <c r="B1726">
+        <v>4.269</v>
+      </c>
+      <c r="C1726">
+        <v>4.276</v>
+      </c>
+      <c r="D1726">
+        <v>4.252</v>
+      </c>
+      <c r="E1726">
+        <v>4.262</v>
+      </c>
+      <c r="F1726">
+        <v>22460.41</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:6">
+      <c r="A1727" s="2">
+        <v>45535.625</v>
+      </c>
+      <c r="B1727">
+        <v>4.261</v>
+      </c>
+      <c r="C1727">
+        <v>4.275</v>
+      </c>
+      <c r="D1727">
+        <v>4.256</v>
+      </c>
+      <c r="E1727">
+        <v>4.257</v>
+      </c>
+      <c r="F1727">
+        <v>17317.11</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:6">
+      <c r="A1728" s="2">
+        <v>45535.64583333334</v>
+      </c>
+      <c r="B1728">
+        <v>4.256</v>
+      </c>
+      <c r="C1728">
+        <v>4.273</v>
+      </c>
+      <c r="D1728">
+        <v>4.256</v>
+      </c>
+      <c r="E1728">
+        <v>4.269</v>
+      </c>
+      <c r="F1728">
+        <v>11441.96</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:6">
+      <c r="A1729" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1729">
+        <v>4.27</v>
+      </c>
+      <c r="C1729">
+        <v>4.274</v>
+      </c>
+      <c r="D1729">
+        <v>4.254</v>
+      </c>
+      <c r="E1729">
+        <v>4.261</v>
+      </c>
+      <c r="F1729">
+        <v>19304.77</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:6">
+      <c r="A1730" s="2">
+        <v>45535.6875</v>
+      </c>
+      <c r="B1730">
+        <v>4.26</v>
+      </c>
+      <c r="C1730">
+        <v>4.268</v>
+      </c>
+      <c r="D1730">
+        <v>4.233</v>
+      </c>
+      <c r="E1730">
+        <v>4.241</v>
+      </c>
+      <c r="F1730">
+        <v>33179.96</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:6">
+      <c r="A1731" s="2">
+        <v>45535.70833333334</v>
+      </c>
+      <c r="B1731">
+        <v>4.24</v>
+      </c>
+      <c r="C1731">
+        <v>4.251</v>
+      </c>
+      <c r="D1731">
+        <v>4.225</v>
+      </c>
+      <c r="E1731">
+        <v>4.239</v>
+      </c>
+      <c r="F1731">
+        <v>23304.52</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:6">
+      <c r="A1732" s="2">
+        <v>45535.72916666666</v>
+      </c>
+      <c r="B1732">
+        <v>4.237</v>
+      </c>
+      <c r="C1732">
+        <v>4.248</v>
+      </c>
+      <c r="D1732">
+        <v>4.218</v>
+      </c>
+      <c r="E1732">
+        <v>4.24</v>
+      </c>
+      <c r="F1732">
+        <v>37273.99</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:6">
+      <c r="A1733" s="2">
+        <v>45535.75</v>
+      </c>
+      <c r="B1733">
+        <v>4.24</v>
+      </c>
+      <c r="C1733">
+        <v>4.268</v>
+      </c>
+      <c r="D1733">
+        <v>4.237</v>
+      </c>
+      <c r="E1733">
+        <v>4.266</v>
+      </c>
+      <c r="F1733">
+        <v>33090.94</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:6">
+      <c r="A1734" s="2">
+        <v>45535.77083333334</v>
+      </c>
+      <c r="B1734">
+        <v>4.266</v>
+      </c>
+      <c r="C1734">
+        <v>4.272</v>
+      </c>
+      <c r="D1734">
+        <v>4.244</v>
+      </c>
+      <c r="E1734">
+        <v>4.247</v>
+      </c>
+      <c r="F1734">
+        <v>23638.09</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:6">
+      <c r="A1735" s="2">
+        <v>45535.79166666666</v>
+      </c>
+      <c r="B1735">
+        <v>4.247</v>
+      </c>
+      <c r="C1735">
+        <v>4.247</v>
+      </c>
+      <c r="D1735">
+        <v>4.233</v>
+      </c>
+      <c r="E1735">
+        <v>4.236</v>
+      </c>
+      <c r="F1735">
+        <v>30382.27</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:6">
+      <c r="A1736" s="2">
+        <v>45535.8125</v>
+      </c>
+      <c r="B1736">
+        <v>4.235</v>
+      </c>
+      <c r="C1736">
+        <v>4.241</v>
+      </c>
+      <c r="D1736">
+        <v>4.233</v>
+      </c>
+      <c r="E1736">
+        <v>4.241</v>
+      </c>
+      <c r="F1736">
+        <v>6669.88</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:6">
+      <c r="A1737" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1737">
+        <v>4.24</v>
+      </c>
+      <c r="C1737">
+        <v>4.245</v>
+      </c>
+      <c r="D1737">
+        <v>4.228</v>
+      </c>
+      <c r="E1737">
+        <v>4.235</v>
+      </c>
+      <c r="F1737">
+        <v>27092.92</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:6">
+      <c r="A1738" s="2">
+        <v>45535.85416666666</v>
+      </c>
+      <c r="B1738">
+        <v>4.233</v>
+      </c>
+      <c r="C1738">
+        <v>4.245</v>
+      </c>
+      <c r="D1738">
+        <v>4.232</v>
+      </c>
+      <c r="E1738">
+        <v>4.235</v>
+      </c>
+      <c r="F1738">
+        <v>9446.370000000001</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:6">
+      <c r="A1739" s="2">
+        <v>45535.875</v>
+      </c>
+      <c r="B1739">
+        <v>4.236</v>
+      </c>
+      <c r="C1739">
+        <v>4.243</v>
+      </c>
+      <c r="D1739">
+        <v>4.229</v>
+      </c>
+      <c r="E1739">
+        <v>4.243</v>
+      </c>
+      <c r="F1739">
+        <v>16976.07</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:6">
+      <c r="A1740" s="2">
+        <v>45535.89583333334</v>
+      </c>
+      <c r="B1740">
+        <v>4.243</v>
+      </c>
+      <c r="C1740">
+        <v>4.246</v>
+      </c>
+      <c r="D1740">
+        <v>4.243</v>
+      </c>
+      <c r="E1740">
+        <v>4.246</v>
+      </c>
+      <c r="F1740">
+        <v>126.44</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:6">
+      <c r="A1741" s="2">
+        <v>45535.91666666666</v>
+      </c>
+      <c r="B1741">
+        <v>4.261</v>
+      </c>
+      <c r="C1741">
+        <v>4.261</v>
+      </c>
+      <c r="D1741">
+        <v>4.246</v>
+      </c>
+      <c r="E1741">
+        <v>4.247</v>
+      </c>
+      <c r="F1741">
+        <v>9650.25</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:6">
+      <c r="A1742" s="2">
+        <v>45535.9375</v>
+      </c>
+      <c r="B1742">
+        <v>4.248</v>
+      </c>
+      <c r="C1742">
+        <v>4.256</v>
+      </c>
+      <c r="D1742">
+        <v>4.246</v>
+      </c>
+      <c r="E1742">
+        <v>4.251</v>
+      </c>
+      <c r="F1742">
+        <v>8841.440000000001</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:6">
+      <c r="A1743" s="2">
+        <v>45535.95833333334</v>
+      </c>
+      <c r="B1743">
+        <v>4.251</v>
+      </c>
+      <c r="C1743">
+        <v>4.258</v>
+      </c>
+      <c r="D1743">
+        <v>4.247</v>
+      </c>
+      <c r="E1743">
+        <v>4.254</v>
+      </c>
+      <c r="F1743">
+        <v>6629.04</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:6">
+      <c r="A1744" s="2">
+        <v>45535.97916666666</v>
+      </c>
+      <c r="B1744">
+        <v>4.254</v>
+      </c>
+      <c r="C1744">
+        <v>4.262</v>
+      </c>
+      <c r="D1744">
+        <v>4.249</v>
+      </c>
+      <c r="E1744">
+        <v>4.258</v>
+      </c>
+      <c r="F1744">
+        <v>4953.81</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:6">
+      <c r="A1745" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1745">
+        <v>4.259</v>
+      </c>
+      <c r="C1745">
+        <v>4.259</v>
+      </c>
+      <c r="D1745">
+        <v>4.24</v>
+      </c>
+      <c r="E1745">
+        <v>4.244</v>
+      </c>
+      <c r="F1745">
+        <v>10772.17</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:6">
+      <c r="A1746" s="2">
+        <v>45536.02083333334</v>
+      </c>
+      <c r="B1746">
+        <v>4.245</v>
+      </c>
+      <c r="C1746">
+        <v>4.255</v>
+      </c>
+      <c r="D1746">
+        <v>4.242</v>
+      </c>
+      <c r="E1746">
+        <v>4.244</v>
+      </c>
+      <c r="F1746">
+        <v>13783.07</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:6">
+      <c r="A1747" s="2">
+        <v>45536.04166666666</v>
+      </c>
+      <c r="B1747">
+        <v>4.243</v>
+      </c>
+      <c r="C1747">
+        <v>4.25</v>
+      </c>
+      <c r="D1747">
+        <v>4.229</v>
+      </c>
+      <c r="E1747">
+        <v>4.234</v>
+      </c>
+      <c r="F1747">
+        <v>11600.93</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:6">
+      <c r="A1748" s="2">
+        <v>45536.0625</v>
+      </c>
+      <c r="B1748">
+        <v>4.233</v>
+      </c>
+      <c r="C1748">
+        <v>4.238</v>
+      </c>
+      <c r="D1748">
+        <v>4.206</v>
+      </c>
+      <c r="E1748">
+        <v>4.209</v>
+      </c>
+      <c r="F1748">
+        <v>47380.1</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:6">
+      <c r="A1749" s="2">
+        <v>45536.08333333334</v>
+      </c>
+      <c r="B1749">
+        <v>4.21</v>
+      </c>
+      <c r="C1749">
+        <v>4.214</v>
+      </c>
+      <c r="D1749">
+        <v>4.186</v>
+      </c>
+      <c r="E1749">
+        <v>4.192</v>
+      </c>
+      <c r="F1749">
+        <v>92710.47</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:6">
+      <c r="A1750" s="2">
+        <v>45536.10416666666</v>
+      </c>
+      <c r="B1750">
+        <v>4.192</v>
+      </c>
+      <c r="C1750">
+        <v>4.212</v>
+      </c>
+      <c r="D1750">
+        <v>4.188</v>
+      </c>
+      <c r="E1750">
+        <v>4.207</v>
+      </c>
+      <c r="F1750">
+        <v>19824.68</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:6">
+      <c r="A1751" s="2">
+        <v>45536.125</v>
+      </c>
+      <c r="B1751">
+        <v>4.208</v>
+      </c>
+      <c r="C1751">
+        <v>4.225</v>
+      </c>
+      <c r="D1751">
+        <v>4.203</v>
+      </c>
+      <c r="E1751">
+        <v>4.22</v>
+      </c>
+      <c r="F1751">
+        <v>17359.63</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:6">
+      <c r="A1752" s="2">
+        <v>45536.14583333334</v>
+      </c>
+      <c r="B1752">
+        <v>4.22</v>
+      </c>
+      <c r="C1752">
+        <v>4.225</v>
+      </c>
+      <c r="D1752">
+        <v>4.212</v>
+      </c>
+      <c r="E1752">
+        <v>4.219</v>
+      </c>
+      <c r="F1752">
+        <v>13365.35</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:6">
+      <c r="A1753" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1753">
+        <v>4.22</v>
+      </c>
+      <c r="C1753">
+        <v>4.223</v>
+      </c>
+      <c r="D1753">
+        <v>4.201</v>
+      </c>
+      <c r="E1753">
+        <v>4.217</v>
+      </c>
+      <c r="F1753">
+        <v>16664.93</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:6">
+      <c r="A1754" s="2">
+        <v>45536.1875</v>
+      </c>
+      <c r="B1754">
+        <v>4.217</v>
+      </c>
+      <c r="C1754">
+        <v>4.225</v>
+      </c>
+      <c r="D1754">
+        <v>4.203</v>
+      </c>
+      <c r="E1754">
+        <v>4.214</v>
+      </c>
+      <c r="F1754">
+        <v>12915.5</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:6">
+      <c r="A1755" s="2">
+        <v>45536.20833333334</v>
+      </c>
+      <c r="B1755">
+        <v>4.213</v>
+      </c>
+      <c r="C1755">
+        <v>4.217</v>
+      </c>
+      <c r="D1755">
+        <v>4.166</v>
+      </c>
+      <c r="E1755">
+        <v>4.186</v>
+      </c>
+      <c r="F1755">
+        <v>241822.73</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:6">
+      <c r="A1756" s="2">
+        <v>45536.22916666666</v>
+      </c>
+      <c r="B1756">
+        <v>4.185</v>
+      </c>
+      <c r="C1756">
+        <v>4.189</v>
+      </c>
+      <c r="D1756">
+        <v>4.144</v>
+      </c>
+      <c r="E1756">
+        <v>4.157</v>
+      </c>
+      <c r="F1756">
+        <v>154743.09</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:6">
+      <c r="A1757" s="2">
+        <v>45536.25</v>
+      </c>
+      <c r="B1757">
+        <v>4.156</v>
+      </c>
+      <c r="C1757">
+        <v>4.187</v>
+      </c>
+      <c r="D1757">
+        <v>4.152</v>
+      </c>
+      <c r="E1757">
+        <v>4.187</v>
+      </c>
+      <c r="F1757">
+        <v>23134.52</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:6">
+      <c r="A1758" s="2">
+        <v>45536.27083333334</v>
+      </c>
+      <c r="B1758">
+        <v>4.187</v>
+      </c>
+      <c r="C1758">
+        <v>4.193</v>
+      </c>
+      <c r="D1758">
+        <v>4.173</v>
+      </c>
+      <c r="E1758">
+        <v>4.176</v>
+      </c>
+      <c r="F1758">
+        <v>22753.46</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:6">
+      <c r="A1759" s="2">
+        <v>45536.29166666666</v>
+      </c>
+      <c r="B1759">
+        <v>4.177</v>
+      </c>
+      <c r="C1759">
+        <v>4.188</v>
+      </c>
+      <c r="D1759">
+        <v>4.171</v>
+      </c>
+      <c r="E1759">
+        <v>4.176</v>
+      </c>
+      <c r="F1759">
+        <v>25690.9</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:6">
+      <c r="A1760" s="2">
+        <v>45536.3125</v>
+      </c>
+      <c r="B1760">
+        <v>4.176</v>
+      </c>
+      <c r="C1760">
+        <v>4.203</v>
+      </c>
+      <c r="D1760">
+        <v>4.174</v>
+      </c>
+      <c r="E1760">
+        <v>4.203</v>
+      </c>
+      <c r="F1760">
+        <v>16770.38</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:6">
+      <c r="A1761" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1761">
+        <v>4.203</v>
+      </c>
+      <c r="C1761">
+        <v>4.206</v>
+      </c>
+      <c r="D1761">
+        <v>4.192</v>
+      </c>
+      <c r="E1761">
+        <v>4.196</v>
+      </c>
+      <c r="F1761">
+        <v>33851.91</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:6">
+      <c r="A1762" s="2">
+        <v>45536.35416666666</v>
+      </c>
+      <c r="B1762">
+        <v>4.194</v>
+      </c>
+      <c r="C1762">
+        <v>4.199</v>
+      </c>
+      <c r="D1762">
+        <v>4.183</v>
+      </c>
+      <c r="E1762">
+        <v>4.183</v>
+      </c>
+      <c r="F1762">
+        <v>35955.95</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:6">
+      <c r="A1763" s="2">
+        <v>45536.375</v>
+      </c>
+      <c r="B1763">
+        <v>4.182</v>
+      </c>
+      <c r="C1763">
+        <v>4.189</v>
+      </c>
+      <c r="D1763">
+        <v>4.171</v>
+      </c>
+      <c r="E1763">
+        <v>4.188</v>
+      </c>
+      <c r="F1763">
+        <v>24232.55</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:6">
+      <c r="A1764" s="2">
+        <v>45536.39583333334</v>
+      </c>
+      <c r="B1764">
+        <v>4.187</v>
+      </c>
+      <c r="C1764">
+        <v>4.199</v>
+      </c>
+      <c r="D1764">
+        <v>4.183</v>
+      </c>
+      <c r="E1764">
+        <v>4.184</v>
+      </c>
+      <c r="F1764">
+        <v>14283.94</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:6">
+      <c r="A1765" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="B1765">
+        <v>4.183</v>
+      </c>
+      <c r="C1765">
+        <v>4.184</v>
+      </c>
+      <c r="D1765">
+        <v>4.169</v>
+      </c>
+      <c r="E1765">
+        <v>4.175</v>
+      </c>
+      <c r="F1765">
+        <v>32050.62</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:6">
+      <c r="A1766" s="2">
+        <v>45536.4375</v>
+      </c>
+      <c r="B1766">
+        <v>4.175</v>
+      </c>
+      <c r="C1766">
+        <v>4.178</v>
+      </c>
+      <c r="D1766">
+        <v>4.156</v>
+      </c>
+      <c r="E1766">
+        <v>4.16</v>
+      </c>
+      <c r="F1766">
+        <v>24450.36</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:6">
+      <c r="A1767" s="2">
+        <v>45536.45833333334</v>
+      </c>
+      <c r="B1767">
+        <v>4.16</v>
+      </c>
+      <c r="C1767">
+        <v>4.181</v>
+      </c>
+      <c r="D1767">
+        <v>4.155</v>
+      </c>
+      <c r="E1767">
+        <v>4.178</v>
+      </c>
+      <c r="F1767">
+        <v>26109.78</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:6">
+      <c r="A1768" s="2">
+        <v>45536.47916666666</v>
+      </c>
+      <c r="B1768">
+        <v>4.177</v>
+      </c>
+      <c r="C1768">
+        <v>4.193</v>
+      </c>
+      <c r="D1768">
+        <v>4.17</v>
+      </c>
+      <c r="E1768">
+        <v>4.192</v>
+      </c>
+      <c r="F1768">
+        <v>44874.32</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:6">
+      <c r="A1769" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1769">
+        <v>4.193</v>
+      </c>
+      <c r="C1769">
+        <v>4.199</v>
+      </c>
+      <c r="D1769">
+        <v>4.175</v>
+      </c>
+      <c r="E1769">
+        <v>4.175</v>
+      </c>
+      <c r="F1769">
+        <v>13754.56</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:6">
+      <c r="A1770" s="2">
+        <v>45536.52083333334</v>
+      </c>
+      <c r="B1770">
+        <v>4.177</v>
+      </c>
+      <c r="C1770">
+        <v>4.184</v>
+      </c>
+      <c r="D1770">
+        <v>4.161</v>
+      </c>
+      <c r="E1770">
+        <v>4.166</v>
+      </c>
+      <c r="F1770">
+        <v>20633.12</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:6">
+      <c r="A1771" s="2">
+        <v>45536.54166666666</v>
+      </c>
+      <c r="B1771">
+        <v>4.165</v>
+      </c>
+      <c r="C1771">
+        <v>4.183</v>
+      </c>
+      <c r="D1771">
+        <v>4.158</v>
+      </c>
+      <c r="E1771">
+        <v>4.162</v>
+      </c>
+      <c r="F1771">
+        <v>16395.78</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:6">
+      <c r="A1772" s="2">
+        <v>45536.5625</v>
+      </c>
+      <c r="B1772">
+        <v>4.162</v>
+      </c>
+      <c r="C1772">
+        <v>4.173</v>
+      </c>
+      <c r="D1772">
+        <v>4.129</v>
+      </c>
+      <c r="E1772">
+        <v>4.167</v>
+      </c>
+      <c r="F1772">
+        <v>200619.83</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:6">
+      <c r="A1773" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="B1773">
+        <v>4.167</v>
+      </c>
+      <c r="C1773">
+        <v>4.167</v>
+      </c>
+      <c r="D1773">
+        <v>4.108</v>
+      </c>
+      <c r="E1773">
+        <v>4.124</v>
+      </c>
+      <c r="F1773">
+        <v>106402.13</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:6">
+      <c r="A1774" s="2">
+        <v>45536.60416666666</v>
+      </c>
+      <c r="B1774">
+        <v>4.124</v>
+      </c>
+      <c r="C1774">
+        <v>4.162</v>
+      </c>
+      <c r="D1774">
+        <v>4.124</v>
+      </c>
+      <c r="E1774">
+        <v>4.143</v>
+      </c>
+      <c r="F1774">
+        <v>59475.14</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:6">
+      <c r="A1775" s="2">
+        <v>45536.625</v>
+      </c>
+      <c r="B1775">
+        <v>4.143</v>
+      </c>
+      <c r="C1775">
+        <v>4.161</v>
+      </c>
+      <c r="D1775">
+        <v>4.134</v>
+      </c>
+      <c r="E1775">
+        <v>4.151</v>
+      </c>
+      <c r="F1775">
+        <v>33878.52</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:6">
+      <c r="A1776" s="2">
+        <v>45536.64583333334</v>
+      </c>
+      <c r="B1776">
+        <v>4.151</v>
+      </c>
+      <c r="C1776">
+        <v>4.195</v>
+      </c>
+      <c r="D1776">
+        <v>4.142</v>
+      </c>
+      <c r="E1776">
+        <v>4.189</v>
+      </c>
+      <c r="F1776">
+        <v>100445.7</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:6">
+      <c r="A1777" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1777">
+        <v>4.186</v>
+      </c>
+      <c r="C1777">
+        <v>4.201</v>
+      </c>
+      <c r="D1777">
+        <v>4.156</v>
+      </c>
+      <c r="E1777">
+        <v>4.158</v>
+      </c>
+      <c r="F1777">
+        <v>58803.31</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:6">
+      <c r="A1778" s="2">
+        <v>45536.6875</v>
+      </c>
+      <c r="B1778">
+        <v>4.159</v>
+      </c>
+      <c r="C1778">
+        <v>4.163</v>
+      </c>
+      <c r="D1778">
+        <v>4.142</v>
+      </c>
+      <c r="E1778">
+        <v>4.153</v>
+      </c>
+      <c r="F1778">
+        <v>40830.03</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:6">
+      <c r="A1779" s="2">
+        <v>45536.70833333334</v>
+      </c>
+      <c r="B1779">
+        <v>4.153</v>
+      </c>
+      <c r="C1779">
+        <v>4.165</v>
+      </c>
+      <c r="D1779">
+        <v>4.113</v>
+      </c>
+      <c r="E1779">
+        <v>4.116</v>
+      </c>
+      <c r="F1779">
+        <v>67191.92</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:6">
+      <c r="A1780" s="2">
+        <v>45536.72916666666</v>
+      </c>
+      <c r="B1780">
+        <v>4.116</v>
+      </c>
+      <c r="C1780">
+        <v>4.128</v>
+      </c>
+      <c r="D1780">
+        <v>4.1</v>
+      </c>
+      <c r="E1780">
+        <v>4.125</v>
+      </c>
+      <c r="F1780">
+        <v>69125.56</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:6">
+      <c r="A1781" s="2">
+        <v>45536.75</v>
+      </c>
+      <c r="B1781">
+        <v>4.125</v>
+      </c>
+      <c r="C1781">
+        <v>4.207</v>
+      </c>
+      <c r="D1781">
+        <v>4.124</v>
+      </c>
+      <c r="E1781">
+        <v>4.188</v>
+      </c>
+      <c r="F1781">
+        <v>76910.62</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:6">
+      <c r="A1782" s="2">
+        <v>45536.77083333334</v>
+      </c>
+      <c r="B1782">
+        <v>4.188</v>
+      </c>
+      <c r="C1782">
+        <v>4.204</v>
+      </c>
+      <c r="D1782">
+        <v>4.174</v>
+      </c>
+      <c r="E1782">
+        <v>4.189</v>
+      </c>
+      <c r="F1782">
+        <v>53620.47</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:6">
+      <c r="A1783" s="2">
+        <v>45536.79166666666</v>
+      </c>
+      <c r="B1783">
+        <v>4.191</v>
+      </c>
+      <c r="C1783">
+        <v>4.221</v>
+      </c>
+      <c r="D1783">
+        <v>4.181</v>
+      </c>
+      <c r="E1783">
+        <v>4.183</v>
+      </c>
+      <c r="F1783">
+        <v>36382.06</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:6">
+      <c r="A1784" s="2">
+        <v>45536.8125</v>
+      </c>
+      <c r="B1784">
+        <v>4.182</v>
+      </c>
+      <c r="C1784">
+        <v>4.202</v>
+      </c>
+      <c r="D1784">
+        <v>4.18</v>
+      </c>
+      <c r="E1784">
+        <v>4.195</v>
+      </c>
+      <c r="F1784">
+        <v>54722.32</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:6">
+      <c r="A1785" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1785">
+        <v>4.195</v>
+      </c>
+      <c r="C1785">
+        <v>4.217</v>
+      </c>
+      <c r="D1785">
+        <v>4.195</v>
+      </c>
+      <c r="E1785">
+        <v>4.211</v>
+      </c>
+      <c r="F1785">
+        <v>37079.81</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:6">
+      <c r="A1786" s="2">
+        <v>45536.85416666666</v>
+      </c>
+      <c r="B1786">
+        <v>4.212</v>
+      </c>
+      <c r="C1786">
+        <v>4.212</v>
+      </c>
+      <c r="D1786">
+        <v>4.178</v>
+      </c>
+      <c r="E1786">
+        <v>4.19</v>
+      </c>
+      <c r="F1786">
+        <v>25499.06</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:6">
+      <c r="A1787" s="2">
+        <v>45536.875</v>
+      </c>
+      <c r="B1787">
+        <v>4.19</v>
+      </c>
+      <c r="C1787">
+        <v>4.194</v>
+      </c>
+      <c r="D1787">
+        <v>4.153</v>
+      </c>
+      <c r="E1787">
+        <v>4.159</v>
+      </c>
+      <c r="F1787">
+        <v>32460.8</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:6">
+      <c r="A1788" s="2">
+        <v>45536.89583333334</v>
+      </c>
+      <c r="B1788">
+        <v>4.158</v>
+      </c>
+      <c r="C1788">
+        <v>4.177</v>
+      </c>
+      <c r="D1788">
+        <v>4.152</v>
+      </c>
+      <c r="E1788">
+        <v>4.173</v>
+      </c>
+      <c r="F1788">
+        <v>51759.05</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:6">
+      <c r="A1789" s="2">
+        <v>45536.91666666666</v>
+      </c>
+      <c r="B1789">
+        <v>4.171</v>
+      </c>
+      <c r="C1789">
+        <v>4.175</v>
+      </c>
+      <c r="D1789">
+        <v>4.086</v>
+      </c>
+      <c r="E1789">
+        <v>4.103</v>
+      </c>
+      <c r="F1789">
+        <v>116142.24</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:6">
+      <c r="A1790" s="2">
+        <v>45536.9375</v>
+      </c>
+      <c r="B1790">
+        <v>4.103</v>
+      </c>
+      <c r="C1790">
+        <v>4.106</v>
+      </c>
+      <c r="D1790">
+        <v>4.032</v>
+      </c>
+      <c r="E1790">
+        <v>4.049</v>
+      </c>
+      <c r="F1790">
+        <v>154658.76</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:6">
+      <c r="A1791" s="2">
+        <v>45536.95833333334</v>
+      </c>
+      <c r="B1791">
+        <v>4.05</v>
+      </c>
+      <c r="C1791">
+        <v>4.082</v>
+      </c>
+      <c r="D1791">
+        <v>4.041</v>
+      </c>
+      <c r="E1791">
+        <v>4.066</v>
+      </c>
+      <c r="F1791">
+        <v>79916.07000000001</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:6">
+      <c r="A1792" s="2">
+        <v>45536.97916666666</v>
+      </c>
+      <c r="B1792">
+        <v>4.066</v>
+      </c>
+      <c r="C1792">
+        <v>4.086</v>
+      </c>
+      <c r="D1792">
+        <v>4.064</v>
+      </c>
+      <c r="E1792">
+        <v>4.068</v>
+      </c>
+      <c r="F1792">
+        <v>32409.82</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:6">
+      <c r="A1793" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1793">
+        <v>4.068</v>
+      </c>
+      <c r="C1793">
+        <v>4.09</v>
+      </c>
+      <c r="D1793">
+        <v>4.067</v>
+      </c>
+      <c r="E1793">
+        <v>4.088</v>
+      </c>
+      <c r="F1793">
+        <v>45406.94</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:6">
+      <c r="A1794" s="2">
+        <v>45537.02083333334</v>
+      </c>
+      <c r="B1794">
+        <v>4.088</v>
+      </c>
+      <c r="C1794">
+        <v>4.105</v>
+      </c>
+      <c r="D1794">
+        <v>4.068</v>
+      </c>
+      <c r="E1794">
+        <v>4.101</v>
+      </c>
+      <c r="F1794">
+        <v>52184.76</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:6">
+      <c r="A1795" s="2">
+        <v>45537.04166666666</v>
+      </c>
+      <c r="B1795">
+        <v>4.101</v>
+      </c>
+      <c r="C1795">
+        <v>4.126</v>
+      </c>
+      <c r="D1795">
+        <v>4.09</v>
+      </c>
+      <c r="E1795">
+        <v>4.113</v>
+      </c>
+      <c r="F1795">
+        <v>38400.39</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:6">
+      <c r="A1796" s="2">
+        <v>45537.0625</v>
+      </c>
+      <c r="B1796">
+        <v>4.114</v>
+      </c>
+      <c r="C1796">
+        <v>4.125</v>
+      </c>
+      <c r="D1796">
+        <v>4.097</v>
+      </c>
+      <c r="E1796">
+        <v>4.098</v>
+      </c>
+      <c r="F1796">
+        <v>39631.79</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:6">
+      <c r="A1797" s="2">
+        <v>45537.08333333334</v>
+      </c>
+      <c r="B1797">
+        <v>4.098</v>
+      </c>
+      <c r="C1797">
+        <v>4.126</v>
+      </c>
+      <c r="D1797">
+        <v>4.095</v>
+      </c>
+      <c r="E1797">
+        <v>4.111</v>
+      </c>
+      <c r="F1797">
+        <v>39888.88</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:6">
+      <c r="A1798" s="2">
+        <v>45537.10416666666</v>
+      </c>
+      <c r="B1798">
+        <v>4.109</v>
+      </c>
+      <c r="C1798">
+        <v>4.109</v>
+      </c>
+      <c r="D1798">
+        <v>4.085</v>
+      </c>
+      <c r="E1798">
+        <v>4.101</v>
+      </c>
+      <c r="F1798">
+        <v>76042.35000000001</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:6">
+      <c r="A1799" s="2">
+        <v>45537.125</v>
+      </c>
+      <c r="B1799">
+        <v>4.102</v>
+      </c>
+      <c r="C1799">
+        <v>4.118</v>
+      </c>
+      <c r="D1799">
+        <v>4.1</v>
+      </c>
+      <c r="E1799">
+        <v>4.112</v>
+      </c>
+      <c r="F1799">
+        <v>28220.6</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:6">
+      <c r="A1800" s="2">
+        <v>45537.14583333334</v>
+      </c>
+      <c r="B1800">
+        <v>4.113</v>
+      </c>
+      <c r="C1800">
+        <v>4.115</v>
+      </c>
+      <c r="D1800">
+        <v>4.103</v>
+      </c>
+      <c r="E1800">
+        <v>4.115</v>
+      </c>
+      <c r="F1800">
+        <v>17551.22</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:6">
+      <c r="A1801" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1801">
+        <v>4.114</v>
+      </c>
+      <c r="C1801">
+        <v>4.116</v>
+      </c>
+      <c r="D1801">
+        <v>4.093</v>
+      </c>
+      <c r="E1801">
+        <v>4.099</v>
+      </c>
+      <c r="F1801">
+        <v>22522.05</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:6">
+      <c r="A1802" s="2">
+        <v>45537.1875</v>
+      </c>
+      <c r="B1802">
+        <v>4.101</v>
+      </c>
+      <c r="C1802">
+        <v>4.105</v>
+      </c>
+      <c r="D1802">
+        <v>4.067</v>
+      </c>
+      <c r="E1802">
+        <v>4.067</v>
+      </c>
+      <c r="F1802">
+        <v>22903.63</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:6">
+      <c r="A1803" s="2">
+        <v>45537.20833333334</v>
+      </c>
+      <c r="B1803">
+        <v>4.067</v>
+      </c>
+      <c r="C1803">
+        <v>4.097</v>
+      </c>
+      <c r="D1803">
+        <v>4.066</v>
+      </c>
+      <c r="E1803">
+        <v>4.096</v>
+      </c>
+      <c r="F1803">
+        <v>26963.16</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:6">
+      <c r="A1804" s="2">
+        <v>45537.22916666666</v>
+      </c>
+      <c r="B1804">
+        <v>4.095</v>
+      </c>
+      <c r="C1804">
+        <v>4.133</v>
+      </c>
+      <c r="D1804">
+        <v>4.079</v>
+      </c>
+      <c r="E1804">
+        <v>4.12</v>
+      </c>
+      <c r="F1804">
+        <v>66604.39</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:6">
+      <c r="A1805" s="2">
+        <v>45537.25</v>
+      </c>
+      <c r="B1805">
+        <v>4.119</v>
+      </c>
+      <c r="C1805">
+        <v>4.128</v>
+      </c>
+      <c r="D1805">
+        <v>4.099</v>
+      </c>
+      <c r="E1805">
+        <v>4.101</v>
+      </c>
+      <c r="F1805">
+        <v>28419.97</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:6">
+      <c r="A1806" s="2">
+        <v>45537.27083333334</v>
+      </c>
+      <c r="B1806">
+        <v>4.101</v>
+      </c>
+      <c r="C1806">
+        <v>4.117</v>
+      </c>
+      <c r="D1806">
+        <v>4.099</v>
+      </c>
+      <c r="E1806">
+        <v>4.107</v>
+      </c>
+      <c r="F1806">
+        <v>13842.57</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:6">
+      <c r="A1807" s="2">
+        <v>45537.29166666666</v>
+      </c>
+      <c r="B1807">
+        <v>4.106</v>
+      </c>
+      <c r="C1807">
+        <v>4.111</v>
+      </c>
+      <c r="D1807">
+        <v>4.078</v>
+      </c>
+      <c r="E1807">
+        <v>4.082</v>
+      </c>
+      <c r="F1807">
+        <v>35439.6</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:6">
+      <c r="A1808" s="2">
+        <v>45537.3125</v>
+      </c>
+      <c r="B1808">
+        <v>4.083</v>
+      </c>
+      <c r="C1808">
+        <v>4.09</v>
+      </c>
+      <c r="D1808">
+        <v>4.051</v>
+      </c>
+      <c r="E1808">
+        <v>4.073</v>
+      </c>
+      <c r="F1808">
+        <v>68679.69</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:6">
+      <c r="A1809" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1809">
+        <v>4.072</v>
+      </c>
+      <c r="C1809">
+        <v>4.131</v>
+      </c>
+      <c r="D1809">
+        <v>4.072</v>
+      </c>
+      <c r="E1809">
+        <v>4.127</v>
+      </c>
+      <c r="F1809">
+        <v>66093.19</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:6">
+      <c r="A1810" s="2">
+        <v>45537.35416666666</v>
+      </c>
+      <c r="B1810">
+        <v>4.128</v>
+      </c>
+      <c r="C1810">
+        <v>4.148</v>
+      </c>
+      <c r="D1810">
+        <v>4.122</v>
+      </c>
+      <c r="E1810">
+        <v>4.126</v>
+      </c>
+      <c r="F1810">
+        <v>74345.31</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:6">
+      <c r="A1811" s="2">
+        <v>45537.375</v>
+      </c>
+      <c r="B1811">
+        <v>4.124</v>
+      </c>
+      <c r="C1811">
+        <v>4.136</v>
+      </c>
+      <c r="D1811">
+        <v>4.11</v>
+      </c>
+      <c r="E1811">
+        <v>4.123</v>
+      </c>
+      <c r="F1811">
+        <v>55732.87</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:6">
+      <c r="A1812" s="2">
+        <v>45537.39583333334</v>
+      </c>
+      <c r="B1812">
+        <v>4.123</v>
+      </c>
+      <c r="C1812">
+        <v>4.162</v>
+      </c>
+      <c r="D1812">
+        <v>4.113</v>
+      </c>
+      <c r="E1812">
+        <v>4.159</v>
+      </c>
+      <c r="F1812">
+        <v>55448</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:6">
+      <c r="A1813" s="2">
+        <v>45537.41666666666</v>
+      </c>
+      <c r="B1813">
+        <v>4.158</v>
+      </c>
+      <c r="C1813">
+        <v>4.193</v>
+      </c>
+      <c r="D1813">
+        <v>4.157</v>
+      </c>
+      <c r="E1813">
+        <v>4.189</v>
+      </c>
+      <c r="F1813">
+        <v>63505.15</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:6">
+      <c r="A1814" s="2">
+        <v>45537.4375</v>
+      </c>
+      <c r="B1814">
+        <v>4.189</v>
+      </c>
+      <c r="C1814">
+        <v>4.198</v>
+      </c>
+      <c r="D1814">
+        <v>4.17</v>
+      </c>
+      <c r="E1814">
+        <v>4.197</v>
+      </c>
+      <c r="F1814">
+        <v>63795.16</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:6">
+      <c r="A1815" s="2">
+        <v>45537.45833333334</v>
+      </c>
+      <c r="B1815">
+        <v>4.198</v>
+      </c>
+      <c r="C1815">
+        <v>4.208</v>
+      </c>
+      <c r="D1815">
+        <v>4.183</v>
+      </c>
+      <c r="E1815">
+        <v>4.208</v>
+      </c>
+      <c r="F1815">
+        <v>39260.74</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:6">
+      <c r="A1816" s="2">
+        <v>45537.47916666666</v>
+      </c>
+      <c r="B1816">
+        <v>4.208</v>
+      </c>
+      <c r="C1816">
+        <v>4.209</v>
+      </c>
+      <c r="D1816">
+        <v>4.187</v>
+      </c>
+      <c r="E1816">
+        <v>4.19</v>
+      </c>
+      <c r="F1816">
+        <v>52532.69</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:6">
+      <c r="A1817" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1817">
+        <v>4.19</v>
+      </c>
+      <c r="C1817">
+        <v>4.203</v>
+      </c>
+      <c r="D1817">
+        <v>4.181</v>
+      </c>
+      <c r="E1817">
+        <v>4.194</v>
+      </c>
+      <c r="F1817">
+        <v>35963.16</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:6">
+      <c r="A1818" s="2">
+        <v>45537.52083333334</v>
+      </c>
+      <c r="B1818">
+        <v>4.192</v>
+      </c>
+      <c r="C1818">
+        <v>4.192</v>
+      </c>
+      <c r="D1818">
+        <v>4.177</v>
+      </c>
+      <c r="E1818">
+        <v>4.178</v>
+      </c>
+      <c r="F1818">
+        <v>35815.24</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:6">
+      <c r="A1819" s="2">
+        <v>45537.54166666666</v>
+      </c>
+      <c r="B1819">
+        <v>4.179</v>
+      </c>
+      <c r="C1819">
+        <v>4.183</v>
+      </c>
+      <c r="D1819">
+        <v>4.156</v>
+      </c>
+      <c r="E1819">
+        <v>4.159</v>
+      </c>
+      <c r="F1819">
+        <v>103882.1</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:6">
+      <c r="A1820" s="2">
+        <v>45537.5625</v>
+      </c>
+      <c r="B1820">
+        <v>4.159</v>
+      </c>
+      <c r="C1820">
+        <v>4.167</v>
+      </c>
+      <c r="D1820">
+        <v>4.143</v>
+      </c>
+      <c r="E1820">
+        <v>4.149</v>
+      </c>
+      <c r="F1820">
+        <v>65262.63</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:6">
+      <c r="A1821" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="B1821">
+        <v>4.148</v>
+      </c>
+      <c r="C1821">
+        <v>4.153</v>
+      </c>
+      <c r="D1821">
+        <v>4.122</v>
+      </c>
+      <c r="E1821">
+        <v>4.151</v>
+      </c>
+      <c r="F1821">
+        <v>59396.57</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:6">
+      <c r="A1822" s="2">
+        <v>45537.60416666666</v>
+      </c>
+      <c r="B1822">
+        <v>4.15</v>
+      </c>
+      <c r="C1822">
+        <v>4.183</v>
+      </c>
+      <c r="D1822">
+        <v>4.15</v>
+      </c>
+      <c r="E1822">
+        <v>4.173</v>
+      </c>
+      <c r="F1822">
+        <v>161232.83</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:6">
+      <c r="A1823" s="2">
+        <v>45537.625</v>
+      </c>
+      <c r="B1823">
+        <v>4.174</v>
+      </c>
+      <c r="C1823">
+        <v>4.183</v>
+      </c>
+      <c r="D1823">
+        <v>4.154</v>
+      </c>
+      <c r="E1823">
+        <v>4.155</v>
+      </c>
+      <c r="F1823">
+        <v>27673.96</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:6">
+      <c r="A1824" s="2">
+        <v>45537.64583333334</v>
+      </c>
+      <c r="B1824">
+        <v>4.156</v>
+      </c>
+      <c r="C1824">
+        <v>4.175</v>
+      </c>
+      <c r="D1824">
+        <v>4.154</v>
+      </c>
+      <c r="E1824">
+        <v>4.157</v>
+      </c>
+      <c r="F1824">
+        <v>27953.82</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:6">
+      <c r="A1825" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1825">
+        <v>4.157</v>
+      </c>
+      <c r="C1825">
+        <v>4.174</v>
+      </c>
+      <c r="D1825">
+        <v>4.149</v>
+      </c>
+      <c r="E1825">
+        <v>4.151</v>
+      </c>
+      <c r="F1825">
+        <v>37394.04</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:6">
+      <c r="A1826" s="2">
+        <v>45537.6875</v>
+      </c>
+      <c r="B1826">
+        <v>4.152</v>
+      </c>
+      <c r="C1826">
+        <v>4.161</v>
+      </c>
+      <c r="D1826">
+        <v>4.135</v>
+      </c>
+      <c r="E1826">
+        <v>4.138</v>
+      </c>
+      <c r="F1826">
+        <v>41810.09</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:6">
+      <c r="A1827" s="2">
+        <v>45537.70833333334</v>
+      </c>
+      <c r="B1827">
+        <v>4.138</v>
+      </c>
+      <c r="C1827">
+        <v>4.158</v>
+      </c>
+      <c r="D1827">
+        <v>4.137</v>
+      </c>
+      <c r="E1827">
+        <v>4.158</v>
+      </c>
+      <c r="F1827">
+        <v>16640.7</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:6">
+      <c r="A1828" s="2">
+        <v>45537.72916666666</v>
+      </c>
+      <c r="B1828">
+        <v>4.159</v>
+      </c>
+      <c r="C1828">
+        <v>4.17</v>
+      </c>
+      <c r="D1828">
+        <v>4.147</v>
+      </c>
+      <c r="E1828">
+        <v>4.168</v>
+      </c>
+      <c r="F1828">
+        <v>14554.23</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:6">
+      <c r="A1829" s="2">
+        <v>45537.75</v>
+      </c>
+      <c r="B1829">
+        <v>4.168</v>
+      </c>
+      <c r="C1829">
+        <v>4.173</v>
+      </c>
+      <c r="D1829">
+        <v>4.155</v>
+      </c>
+      <c r="E1829">
+        <v>4.157</v>
+      </c>
+      <c r="F1829">
+        <v>32109.65</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:6">
+      <c r="A1830" s="2">
+        <v>45537.77083333334</v>
+      </c>
+      <c r="B1830">
+        <v>4.157</v>
+      </c>
+      <c r="C1830">
+        <v>4.163</v>
+      </c>
+      <c r="D1830">
+        <v>4.138</v>
+      </c>
+      <c r="E1830">
+        <v>4.15</v>
+      </c>
+      <c r="F1830">
+        <v>30188.79</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:6">
+      <c r="A1831" s="2">
+        <v>45537.79166666666</v>
+      </c>
+      <c r="B1831">
+        <v>4.15</v>
+      </c>
+      <c r="C1831">
+        <v>4.166</v>
+      </c>
+      <c r="D1831">
+        <v>4.141</v>
+      </c>
+      <c r="E1831">
+        <v>4.166</v>
+      </c>
+      <c r="F1831">
+        <v>36862.59</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:6">
+      <c r="A1832" s="2">
+        <v>45537.8125</v>
+      </c>
+      <c r="B1832">
+        <v>4.165</v>
+      </c>
+      <c r="C1832">
+        <v>4.171</v>
+      </c>
+      <c r="D1832">
+        <v>4.157</v>
+      </c>
+      <c r="E1832">
+        <v>4.166</v>
+      </c>
+      <c r="F1832">
+        <v>36229.52</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:6">
+      <c r="A1833" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1833">
+        <v>4.167</v>
+      </c>
+      <c r="C1833">
+        <v>4.188</v>
+      </c>
+      <c r="D1833">
+        <v>4.163</v>
+      </c>
+      <c r="E1833">
+        <v>4.181</v>
+      </c>
+      <c r="F1833">
+        <v>31105.36</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:6">
+      <c r="A1834" s="2">
+        <v>45537.85416666666</v>
+      </c>
+      <c r="B1834">
+        <v>4.18</v>
+      </c>
+      <c r="C1834">
+        <v>4.226</v>
+      </c>
+      <c r="D1834">
+        <v>4.178</v>
+      </c>
+      <c r="E1834">
+        <v>4.214</v>
+      </c>
+      <c r="F1834">
+        <v>76532.50999999999</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:6">
+      <c r="A1835" s="2">
+        <v>45537.875</v>
+      </c>
+      <c r="B1835">
+        <v>4.215</v>
+      </c>
+      <c r="C1835">
+        <v>4.234</v>
+      </c>
+      <c r="D1835">
+        <v>4.211</v>
+      </c>
+      <c r="E1835">
+        <v>4.221</v>
+      </c>
+      <c r="F1835">
+        <v>78018.49000000001</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:6">
+      <c r="A1836" s="2">
+        <v>45537.89583333334</v>
+      </c>
+      <c r="B1836">
+        <v>4.221</v>
+      </c>
+      <c r="C1836">
+        <v>4.225</v>
+      </c>
+      <c r="D1836">
+        <v>4.2</v>
+      </c>
+      <c r="E1836">
+        <v>4.213</v>
+      </c>
+      <c r="F1836">
+        <v>62605.28</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:6">
+      <c r="A1837" s="2">
+        <v>45537.91666666666</v>
+      </c>
+      <c r="B1837">
+        <v>4.214</v>
+      </c>
+      <c r="C1837">
+        <v>4.222</v>
+      </c>
+      <c r="D1837">
+        <v>4.199</v>
+      </c>
+      <c r="E1837">
+        <v>4.213</v>
+      </c>
+      <c r="F1837">
+        <v>24900.19</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:6">
+      <c r="A1838" s="2">
+        <v>45537.9375</v>
+      </c>
+      <c r="B1838">
+        <v>4.213</v>
+      </c>
+      <c r="C1838">
+        <v>4.218</v>
+      </c>
+      <c r="D1838">
+        <v>4.206</v>
+      </c>
+      <c r="E1838">
+        <v>4.21</v>
+      </c>
+      <c r="F1838">
+        <v>35873.3</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:6">
+      <c r="A1839" s="2">
+        <v>45537.95833333334</v>
+      </c>
+      <c r="B1839">
+        <v>4.21</v>
+      </c>
+      <c r="C1839">
+        <v>4.221</v>
+      </c>
+      <c r="D1839">
+        <v>4.204</v>
+      </c>
+      <c r="E1839">
+        <v>4.205</v>
+      </c>
+      <c r="F1839">
+        <v>13487.1</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:6">
+      <c r="A1840" s="2">
+        <v>45537.97916666666</v>
+      </c>
+      <c r="B1840">
+        <v>4.207</v>
+      </c>
+      <c r="C1840">
+        <v>4.213</v>
+      </c>
+      <c r="D1840">
+        <v>4.201</v>
+      </c>
+      <c r="E1840">
+        <v>4.208</v>
+      </c>
+      <c r="F1840">
+        <v>15875.76</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:6">
+      <c r="A1841" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1841">
+        <v>4.209</v>
+      </c>
+      <c r="C1841">
+        <v>4.213</v>
+      </c>
+      <c r="D1841">
+        <v>4.2</v>
+      </c>
+      <c r="E1841">
+        <v>4.21</v>
+      </c>
+      <c r="F1841">
+        <v>9759.120000000001</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:6">
+      <c r="A1842" s="2">
+        <v>45538.02083333334</v>
+      </c>
+      <c r="B1842">
+        <v>4.209</v>
+      </c>
+      <c r="C1842">
+        <v>4.223</v>
+      </c>
+      <c r="D1842">
+        <v>4.202</v>
+      </c>
+      <c r="E1842">
+        <v>4.222</v>
+      </c>
+      <c r="F1842">
+        <v>40776.03</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:6">
+      <c r="A1843" s="2">
+        <v>45538.04166666666</v>
+      </c>
+      <c r="B1843">
+        <v>4.222</v>
+      </c>
+      <c r="C1843">
+        <v>4.238</v>
+      </c>
+      <c r="D1843">
+        <v>4.216</v>
+      </c>
+      <c r="E1843">
+        <v>4.225</v>
+      </c>
+      <c r="F1843">
+        <v>17608.69</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:6">
+      <c r="A1844" s="2">
+        <v>45538.0625</v>
+      </c>
+      <c r="B1844">
+        <v>4.224</v>
+      </c>
+      <c r="C1844">
+        <v>4.233</v>
+      </c>
+      <c r="D1844">
+        <v>4.21</v>
+      </c>
+      <c r="E1844">
+        <v>4.233</v>
+      </c>
+      <c r="F1844">
+        <v>27601.07</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:6">
+      <c r="A1845" s="2">
+        <v>45538.08333333334</v>
+      </c>
+      <c r="B1845">
+        <v>4.233</v>
+      </c>
+      <c r="C1845">
+        <v>4.279</v>
+      </c>
+      <c r="D1845">
+        <v>4.224</v>
+      </c>
+      <c r="E1845">
+        <v>4.262</v>
+      </c>
+      <c r="F1845">
+        <v>86547.16</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:6">
+      <c r="A1846" s="2">
+        <v>45538.10416666666</v>
+      </c>
+      <c r="B1846">
+        <v>4.263</v>
+      </c>
+      <c r="C1846">
+        <v>4.277</v>
+      </c>
+      <c r="D1846">
+        <v>4.249</v>
+      </c>
+      <c r="E1846">
+        <v>4.252</v>
+      </c>
+      <c r="F1846">
+        <v>36739.9</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:6">
+      <c r="A1847" s="2">
+        <v>45538.125</v>
+      </c>
+      <c r="B1847">
+        <v>4.252</v>
+      </c>
+      <c r="C1847">
+        <v>4.267</v>
+      </c>
+      <c r="D1847">
+        <v>4.243</v>
+      </c>
+      <c r="E1847">
+        <v>4.252</v>
+      </c>
+      <c r="F1847">
+        <v>26734.63</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:6">
+      <c r="A1848" s="2">
+        <v>45538.14583333334</v>
+      </c>
+      <c r="B1848">
+        <v>4.252</v>
+      </c>
+      <c r="C1848">
+        <v>4.27</v>
+      </c>
+      <c r="D1848">
+        <v>4.252</v>
+      </c>
+      <c r="E1848">
+        <v>4.259</v>
+      </c>
+      <c r="F1848">
+        <v>25550.23</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:6">
+      <c r="A1849" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1849">
+        <v>4.259</v>
+      </c>
+      <c r="C1849">
+        <v>4.262</v>
+      </c>
+      <c r="D1849">
+        <v>4.236</v>
+      </c>
+      <c r="E1849">
+        <v>4.24</v>
+      </c>
+      <c r="F1849">
+        <v>29485.46</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:6">
+      <c r="A1850" s="2">
+        <v>45538.1875</v>
+      </c>
+      <c r="B1850">
+        <v>4.24</v>
+      </c>
+      <c r="C1850">
+        <v>4.256</v>
+      </c>
+      <c r="D1850">
+        <v>4.232</v>
+      </c>
+      <c r="E1850">
+        <v>4.246</v>
+      </c>
+      <c r="F1850">
+        <v>40902.9</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:6">
+      <c r="A1851" s="2">
+        <v>45538.20833333334</v>
+      </c>
+      <c r="B1851">
+        <v>4.246</v>
+      </c>
+      <c r="C1851">
+        <v>4.263</v>
+      </c>
+      <c r="D1851">
+        <v>4.238</v>
+      </c>
+      <c r="E1851">
+        <v>4.259</v>
+      </c>
+      <c r="F1851">
+        <v>21269.57</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:6">
+      <c r="A1852" s="2">
+        <v>45538.22916666666</v>
+      </c>
+      <c r="B1852">
+        <v>4.259</v>
+      </c>
+      <c r="C1852">
+        <v>4.265</v>
+      </c>
+      <c r="D1852">
+        <v>4.248</v>
+      </c>
+      <c r="E1852">
+        <v>4.264</v>
+      </c>
+      <c r="F1852">
+        <v>23379.61</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:6">
+      <c r="A1853" s="2">
+        <v>45538.25</v>
+      </c>
+      <c r="B1853">
+        <v>4.262</v>
+      </c>
+      <c r="C1853">
+        <v>4.263</v>
+      </c>
+      <c r="D1853">
+        <v>4.242</v>
+      </c>
+      <c r="E1853">
+        <v>4.255</v>
+      </c>
+      <c r="F1853">
+        <v>37287.99</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:6">
+      <c r="A1854" s="2">
+        <v>45538.27083333334</v>
+      </c>
+      <c r="B1854">
+        <v>4.256</v>
+      </c>
+      <c r="C1854">
+        <v>4.259</v>
+      </c>
+      <c r="D1854">
+        <v>4.242</v>
+      </c>
+      <c r="E1854">
+        <v>4.244</v>
+      </c>
+      <c r="F1854">
+        <v>23054.82</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:6">
+      <c r="A1855" s="2">
+        <v>45538.29166666666</v>
+      </c>
+      <c r="B1855">
+        <v>4.245</v>
+      </c>
+      <c r="C1855">
+        <v>4.263</v>
+      </c>
+      <c r="D1855">
+        <v>4.245</v>
+      </c>
+      <c r="E1855">
+        <v>4.254</v>
+      </c>
+      <c r="F1855">
+        <v>28980.77</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:6">
+      <c r="A1856" s="2">
+        <v>45538.3125</v>
+      </c>
+      <c r="B1856">
+        <v>4.255</v>
+      </c>
+      <c r="C1856">
+        <v>4.268</v>
+      </c>
+      <c r="D1856">
+        <v>4.253</v>
+      </c>
+      <c r="E1856">
+        <v>4.265</v>
+      </c>
+      <c r="F1856">
+        <v>22305.04</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:6">
+      <c r="A1857" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1857">
+        <v>4.264</v>
+      </c>
+      <c r="C1857">
+        <v>4.275</v>
+      </c>
+      <c r="D1857">
+        <v>4.259</v>
+      </c>
+      <c r="E1857">
+        <v>4.263</v>
+      </c>
+      <c r="F1857">
+        <v>36170.38</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:6">
+      <c r="A1858" s="2">
+        <v>45538.35416666666</v>
+      </c>
+      <c r="B1858">
+        <v>4.262</v>
+      </c>
+      <c r="C1858">
+        <v>4.262</v>
+      </c>
+      <c r="D1858">
+        <v>4.225</v>
+      </c>
+      <c r="E1858">
+        <v>4.232</v>
+      </c>
+      <c r="F1858">
+        <v>42729.55</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:6">
+      <c r="A1859" s="2">
+        <v>45538.375</v>
+      </c>
+      <c r="B1859">
+        <v>4.233</v>
+      </c>
+      <c r="C1859">
+        <v>4.243</v>
+      </c>
+      <c r="D1859">
+        <v>4.228</v>
+      </c>
+      <c r="E1859">
+        <v>4.234</v>
+      </c>
+      <c r="F1859">
+        <v>44862.67</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:6">
+      <c r="A1860" s="2">
+        <v>45538.39583333334</v>
+      </c>
+      <c r="B1860">
+        <v>4.234</v>
+      </c>
+      <c r="C1860">
+        <v>4.25</v>
+      </c>
+      <c r="D1860">
+        <v>4.234</v>
+      </c>
+      <c r="E1860">
+        <v>4.245</v>
+      </c>
+      <c r="F1860">
+        <v>64344.57</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:6">
+      <c r="A1861" s="2">
+        <v>45538.41666666666</v>
+      </c>
+      <c r="B1861">
+        <v>4.246</v>
+      </c>
+      <c r="C1861">
+        <v>4.274</v>
+      </c>
+      <c r="D1861">
+        <v>4.245</v>
+      </c>
+      <c r="E1861">
+        <v>4.272</v>
+      </c>
+      <c r="F1861">
+        <v>24932.05</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:6">
+      <c r="A1862" s="2">
+        <v>45538.4375</v>
+      </c>
+      <c r="B1862">
+        <v>4.272</v>
+      </c>
+      <c r="C1862">
+        <v>4.272</v>
+      </c>
+      <c r="D1862">
+        <v>4.247</v>
+      </c>
+      <c r="E1862">
+        <v>4.251</v>
+      </c>
+      <c r="F1862">
+        <v>29634.23</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:6">
+      <c r="A1863" s="2">
+        <v>45538.45833333334</v>
+      </c>
+      <c r="B1863">
+        <v>4.252</v>
+      </c>
+      <c r="C1863">
+        <v>4.263</v>
+      </c>
+      <c r="D1863">
+        <v>4.241</v>
+      </c>
+      <c r="E1863">
+        <v>4.261</v>
+      </c>
+      <c r="F1863">
+        <v>16941.97</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:6">
+      <c r="A1864" s="2">
+        <v>45538.47916666666</v>
+      </c>
+      <c r="B1864">
+        <v>4.262</v>
+      </c>
+      <c r="C1864">
+        <v>4.267</v>
+      </c>
+      <c r="D1864">
+        <v>4.251</v>
+      </c>
+      <c r="E1864">
+        <v>4.265</v>
+      </c>
+      <c r="F1864">
+        <v>31915.94</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:6">
+      <c r="A1865" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1865">
+        <v>4.264</v>
+      </c>
+      <c r="C1865">
+        <v>4.285</v>
+      </c>
+      <c r="D1865">
+        <v>4.26</v>
+      </c>
+      <c r="E1865">
+        <v>4.271</v>
+      </c>
+      <c r="F1865">
+        <v>49994.58</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:6">
+      <c r="A1866" s="2">
+        <v>45538.52083333334</v>
+      </c>
+      <c r="B1866">
+        <v>4.271</v>
+      </c>
+      <c r="C1866">
+        <v>4.282</v>
+      </c>
+      <c r="D1866">
+        <v>4.255</v>
+      </c>
+      <c r="E1866">
+        <v>4.256</v>
+      </c>
+      <c r="F1866">
+        <v>19554.54</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:6">
+      <c r="A1867" s="2">
+        <v>45538.54166666666</v>
+      </c>
+      <c r="B1867">
+        <v>4.256</v>
+      </c>
+      <c r="C1867">
+        <v>4.265</v>
+      </c>
+      <c r="D1867">
+        <v>4.244</v>
+      </c>
+      <c r="E1867">
+        <v>4.244</v>
+      </c>
+      <c r="F1867">
+        <v>16778.2</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:6">
+      <c r="A1868" s="2">
+        <v>45538.5625</v>
+      </c>
+      <c r="B1868">
+        <v>4.244</v>
+      </c>
+      <c r="C1868">
+        <v>4.244</v>
+      </c>
+      <c r="D1868">
+        <v>4.166</v>
+      </c>
+      <c r="E1868">
+        <v>4.193</v>
+      </c>
+      <c r="F1868">
+        <v>178673.7</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:6">
+      <c r="A1869" s="2">
+        <v>45538.58333333334</v>
+      </c>
+      <c r="B1869">
+        <v>4.192</v>
+      </c>
+      <c r="C1869">
+        <v>4.192</v>
+      </c>
+      <c r="D1869">
+        <v>4.139</v>
+      </c>
+      <c r="E1869">
+        <v>4.157</v>
+      </c>
+      <c r="F1869">
+        <v>124189.19</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:6">
+      <c r="A1870" s="2">
+        <v>45538.60416666666</v>
+      </c>
+      <c r="B1870">
+        <v>4.151</v>
+      </c>
+      <c r="C1870">
+        <v>4.158</v>
+      </c>
+      <c r="D1870">
+        <v>4.134</v>
+      </c>
+      <c r="E1870">
+        <v>4.141</v>
+      </c>
+      <c r="F1870">
+        <v>80317.82000000001</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:6">
+      <c r="A1871" s="2">
+        <v>45538.625</v>
+      </c>
+      <c r="B1871">
+        <v>4.143</v>
+      </c>
+      <c r="C1871">
+        <v>4.158</v>
+      </c>
+      <c r="D1871">
+        <v>4.124</v>
+      </c>
+      <c r="E1871">
+        <v>4.126</v>
+      </c>
+      <c r="F1871">
+        <v>68283.13</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:6">
+      <c r="A1872" s="2">
+        <v>45538.64583333334</v>
+      </c>
+      <c r="B1872">
+        <v>4.127</v>
+      </c>
+      <c r="C1872">
+        <v>4.137</v>
+      </c>
+      <c r="D1872">
+        <v>4.096</v>
+      </c>
+      <c r="E1872">
+        <v>4.108</v>
+      </c>
+      <c r="F1872">
+        <v>119037.01</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:6">
+      <c r="A1873" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1873">
+        <v>4.107</v>
+      </c>
+      <c r="C1873">
+        <v>4.124</v>
+      </c>
+      <c r="D1873">
+        <v>4.096</v>
+      </c>
+      <c r="E1873">
+        <v>4.109</v>
+      </c>
+      <c r="F1873">
+        <v>100498.21</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:6">
+      <c r="A1874" s="2">
+        <v>45538.6875</v>
+      </c>
+      <c r="B1874">
+        <v>4.109</v>
+      </c>
+      <c r="C1874">
+        <v>4.126</v>
+      </c>
+      <c r="D1874">
+        <v>4.107</v>
+      </c>
+      <c r="E1874">
+        <v>4.11</v>
+      </c>
+      <c r="F1874">
+        <v>26628.92</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:6">
+      <c r="A1875" s="2">
+        <v>45538.70833333334</v>
+      </c>
+      <c r="B1875">
+        <v>4.109</v>
+      </c>
+      <c r="C1875">
+        <v>4.148</v>
+      </c>
+      <c r="D1875">
+        <v>4.108</v>
+      </c>
+      <c r="E1875">
+        <v>4.146</v>
+      </c>
+      <c r="F1875">
+        <v>36344.13</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:6">
+      <c r="A1876" s="2">
+        <v>45538.72916666666</v>
+      </c>
+      <c r="B1876">
+        <v>4.146</v>
+      </c>
+      <c r="C1876">
+        <v>4.155</v>
+      </c>
+      <c r="D1876">
+        <v>4.124</v>
+      </c>
+      <c r="E1876">
+        <v>4.125</v>
+      </c>
+      <c r="F1876">
+        <v>32687.96</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:6">
+      <c r="A1877" s="2">
+        <v>45538.75</v>
+      </c>
+      <c r="B1877">
+        <v>4.125</v>
+      </c>
+      <c r="C1877">
+        <v>4.132</v>
+      </c>
+      <c r="D1877">
+        <v>4.106</v>
+      </c>
+      <c r="E1877">
+        <v>4.13</v>
+      </c>
+      <c r="F1877">
+        <v>29695.67</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:6">
+      <c r="A1878" s="2">
+        <v>45538.77083333334</v>
+      </c>
+      <c r="B1878">
+        <v>4.13</v>
+      </c>
+      <c r="C1878">
+        <v>4.135</v>
+      </c>
+      <c r="D1878">
+        <v>4.109</v>
+      </c>
+      <c r="E1878">
+        <v>4.112</v>
+      </c>
+      <c r="F1878">
+        <v>37542.82</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:6">
+      <c r="A1879" s="2">
+        <v>45538.79166666666</v>
+      </c>
+      <c r="B1879">
+        <v>4.112</v>
+      </c>
+      <c r="C1879">
+        <v>4.136</v>
+      </c>
+      <c r="D1879">
+        <v>4.109</v>
+      </c>
+      <c r="E1879">
+        <v>4.114</v>
+      </c>
+      <c r="F1879">
+        <v>38305.84</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:6">
+      <c r="A1880" s="2">
+        <v>45538.8125</v>
+      </c>
+      <c r="B1880">
+        <v>4.115</v>
+      </c>
+      <c r="C1880">
+        <v>4.118</v>
+      </c>
+      <c r="D1880">
+        <v>4.101</v>
+      </c>
+      <c r="E1880">
+        <v>4.106</v>
+      </c>
+      <c r="F1880">
+        <v>38964.66</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:6">
+      <c r="A1881" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1881">
+        <v>4.107</v>
+      </c>
+      <c r="C1881">
+        <v>4.126</v>
+      </c>
+      <c r="D1881">
+        <v>4.105</v>
+      </c>
+      <c r="E1881">
+        <v>4.111</v>
+      </c>
+      <c r="F1881">
+        <v>25739.36</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:6">
+      <c r="A1882" s="2">
+        <v>45538.85416666666</v>
+      </c>
+      <c r="B1882">
+        <v>4.112</v>
+      </c>
+      <c r="C1882">
+        <v>4.138</v>
+      </c>
+      <c r="D1882">
+        <v>4.112</v>
+      </c>
+      <c r="E1882">
+        <v>4.134</v>
+      </c>
+      <c r="F1882">
+        <v>52578.87</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:6">
+      <c r="A1883" s="2">
+        <v>45538.875</v>
+      </c>
+      <c r="B1883">
+        <v>4.135</v>
+      </c>
+      <c r="C1883">
+        <v>4.138</v>
+      </c>
+      <c r="D1883">
+        <v>4.11</v>
+      </c>
+      <c r="E1883">
+        <v>4.112</v>
+      </c>
+      <c r="F1883">
+        <v>20105.7</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:6">
+      <c r="A1884" s="2">
+        <v>45538.89583333334</v>
+      </c>
+      <c r="B1884">
+        <v>4.111</v>
+      </c>
+      <c r="C1884">
+        <v>4.133</v>
+      </c>
+      <c r="D1884">
+        <v>4.11</v>
+      </c>
+      <c r="E1884">
+        <v>4.13</v>
+      </c>
+      <c r="F1884">
+        <v>31802.37</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:6">
+      <c r="A1885" s="2">
+        <v>45538.91666666666</v>
+      </c>
+      <c r="B1885">
+        <v>4.131</v>
+      </c>
+      <c r="C1885">
+        <v>4.133</v>
+      </c>
+      <c r="D1885">
+        <v>4.12</v>
+      </c>
+      <c r="E1885">
+        <v>4.122</v>
+      </c>
+      <c r="F1885">
+        <v>21738.38</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:6">
+      <c r="A1886" s="2">
+        <v>45538.9375</v>
+      </c>
+      <c r="B1886">
+        <v>4.121</v>
+      </c>
+      <c r="C1886">
+        <v>4.125</v>
+      </c>
+      <c r="D1886">
+        <v>4.108</v>
+      </c>
+      <c r="E1886">
+        <v>4.108</v>
+      </c>
+      <c r="F1886">
+        <v>15775.71</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:6">
+      <c r="A1887" s="2">
+        <v>45538.95833333334</v>
+      </c>
+      <c r="B1887">
+        <v>4.107</v>
+      </c>
+      <c r="C1887">
+        <v>4.108</v>
+      </c>
+      <c r="D1887">
+        <v>4.081</v>
+      </c>
+      <c r="E1887">
+        <v>4.083</v>
+      </c>
+      <c r="F1887">
+        <v>31112.15</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:6">
+      <c r="A1888" s="2">
+        <v>45538.97916666666</v>
+      </c>
+      <c r="B1888">
+        <v>4.083</v>
+      </c>
+      <c r="C1888">
+        <v>4.091</v>
+      </c>
+      <c r="D1888">
+        <v>4.056</v>
+      </c>
+      <c r="E1888">
+        <v>4.062</v>
+      </c>
+      <c r="F1888">
+        <v>59356.08</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:6">
+      <c r="A1889" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1889">
+        <v>4.063</v>
+      </c>
+      <c r="C1889">
+        <v>4.097</v>
+      </c>
+      <c r="D1889">
+        <v>4.059</v>
+      </c>
+      <c r="E1889">
+        <v>4.085</v>
+      </c>
+      <c r="F1889">
+        <v>50195.73</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:6">
+      <c r="A1890" s="2">
+        <v>45539.02083333334</v>
+      </c>
+      <c r="B1890">
+        <v>4.084</v>
+      </c>
+      <c r="C1890">
+        <v>4.095</v>
+      </c>
+      <c r="D1890">
+        <v>4.007</v>
+      </c>
+      <c r="E1890">
+        <v>4.02</v>
+      </c>
+      <c r="F1890">
+        <v>175434.61</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:6">
+      <c r="A1891" s="2">
+        <v>45539.04166666666</v>
+      </c>
+      <c r="B1891">
+        <v>4.02</v>
+      </c>
+      <c r="C1891">
+        <v>4.023</v>
+      </c>
+      <c r="D1891">
+        <v>3.868</v>
+      </c>
+      <c r="E1891">
+        <v>3.947</v>
+      </c>
+      <c r="F1891">
+        <v>974131.08</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:6">
+      <c r="A1892" s="2">
+        <v>45539.0625</v>
+      </c>
+      <c r="B1892">
+        <v>3.948</v>
+      </c>
+      <c r="C1892">
+        <v>3.993</v>
+      </c>
+      <c r="D1892">
+        <v>3.946</v>
+      </c>
+      <c r="E1892">
+        <v>3.977</v>
+      </c>
+      <c r="F1892">
+        <v>81128.37</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:6">
+      <c r="A1893" s="2">
+        <v>45539.08333333334</v>
+      </c>
+      <c r="B1893">
+        <v>3.977</v>
+      </c>
+      <c r="C1893">
+        <v>4.001</v>
+      </c>
+      <c r="D1893">
+        <v>3.965</v>
+      </c>
+      <c r="E1893">
+        <v>3.994</v>
+      </c>
+      <c r="F1893">
+        <v>58758.89</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:6">
+      <c r="A1894" s="2">
+        <v>45539.10416666666</v>
+      </c>
+      <c r="B1894">
+        <v>3.993</v>
+      </c>
+      <c r="C1894">
+        <v>4.001</v>
+      </c>
+      <c r="D1894">
+        <v>3.987</v>
+      </c>
+      <c r="E1894">
+        <v>3.991</v>
+      </c>
+      <c r="F1894">
+        <v>26817.45</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:6">
+      <c r="A1895" s="2">
+        <v>45539.125</v>
+      </c>
+      <c r="B1895">
+        <v>3.99</v>
+      </c>
+      <c r="C1895">
+        <v>4.039</v>
+      </c>
+      <c r="D1895">
+        <v>3.99</v>
+      </c>
+      <c r="E1895">
+        <v>4.038</v>
+      </c>
+      <c r="F1895">
+        <v>52211.39</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:6">
+      <c r="A1896" s="2">
+        <v>45539.14583333334</v>
+      </c>
+      <c r="B1896">
+        <v>4.037</v>
+      </c>
+      <c r="C1896">
+        <v>4.04</v>
+      </c>
+      <c r="D1896">
+        <v>4.027</v>
+      </c>
+      <c r="E1896">
+        <v>4.038</v>
+      </c>
+      <c r="F1896">
+        <v>38951.47</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:6">
+      <c r="A1897" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1897">
+        <v>4.037</v>
+      </c>
+      <c r="C1897">
+        <v>4.054</v>
+      </c>
+      <c r="D1897">
+        <v>4.032</v>
+      </c>
+      <c r="E1897">
+        <v>4.034</v>
+      </c>
+      <c r="F1897">
+        <v>56897.92</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:6">
+      <c r="A1898" s="2">
+        <v>45539.1875</v>
+      </c>
+      <c r="B1898">
+        <v>4.034</v>
+      </c>
+      <c r="C1898">
+        <v>4.06</v>
+      </c>
+      <c r="D1898">
+        <v>4.034</v>
+      </c>
+      <c r="E1898">
+        <v>4.06</v>
+      </c>
+      <c r="F1898">
+        <v>55984.41</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:6">
+      <c r="A1899" s="2">
+        <v>45539.20833333334</v>
+      </c>
+      <c r="B1899">
+        <v>4.06</v>
+      </c>
+      <c r="C1899">
+        <v>4.06</v>
+      </c>
+      <c r="D1899">
+        <v>4.038</v>
+      </c>
+      <c r="E1899">
+        <v>4.058</v>
+      </c>
+      <c r="F1899">
+        <v>59737.78</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:6">
+      <c r="A1900" s="2">
+        <v>45539.22916666666</v>
+      </c>
+      <c r="B1900">
+        <v>4.058</v>
+      </c>
+      <c r="C1900">
+        <v>4.064</v>
+      </c>
+      <c r="D1900">
+        <v>4.036</v>
+      </c>
+      <c r="E1900">
+        <v>4.037</v>
+      </c>
+      <c r="F1900">
+        <v>42070.34</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:6">
+      <c r="A1901" s="2">
+        <v>45539.25</v>
+      </c>
+      <c r="B1901">
+        <v>4.036</v>
+      </c>
+      <c r="C1901">
+        <v>4.07</v>
+      </c>
+      <c r="D1901">
+        <v>4.036</v>
+      </c>
+      <c r="E1901">
+        <v>4.068</v>
+      </c>
+      <c r="F1901">
+        <v>27315.45</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:6">
+      <c r="A1902" s="2">
+        <v>45539.27083333334</v>
+      </c>
+      <c r="B1902">
+        <v>4.068</v>
+      </c>
+      <c r="C1902">
+        <v>4.068</v>
+      </c>
+      <c r="D1902">
+        <v>4.046</v>
+      </c>
+      <c r="E1902">
+        <v>4.05</v>
+      </c>
+      <c r="F1902">
+        <v>21357.93</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:6">
+      <c r="A1903" s="2">
+        <v>45539.29166666666</v>
+      </c>
+      <c r="B1903">
+        <v>4.05</v>
+      </c>
+      <c r="C1903">
+        <v>4.077</v>
+      </c>
+      <c r="D1903">
+        <v>4.046</v>
+      </c>
+      <c r="E1903">
+        <v>4.053</v>
+      </c>
+      <c r="F1903">
+        <v>45911.59</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:6">
+      <c r="A1904" s="2">
+        <v>45539.3125</v>
+      </c>
+      <c r="B1904">
+        <v>4.053</v>
+      </c>
+      <c r="C1904">
+        <v>4.09</v>
+      </c>
+      <c r="D1904">
+        <v>4.051</v>
+      </c>
+      <c r="E1904">
+        <v>4.084</v>
+      </c>
+      <c r="F1904">
+        <v>87372.58</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:6">
+      <c r="A1905" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1905">
+        <v>4.085</v>
+      </c>
+      <c r="C1905">
+        <v>4.09</v>
+      </c>
+      <c r="D1905">
+        <v>4.071</v>
+      </c>
+      <c r="E1905">
+        <v>4.089</v>
+      </c>
+      <c r="F1905">
+        <v>28837.86</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:6">
+      <c r="A1906" s="2">
+        <v>45539.35416666666</v>
+      </c>
+      <c r="B1906">
+        <v>4.088</v>
+      </c>
+      <c r="C1906">
+        <v>4.089</v>
+      </c>
+      <c r="D1906">
+        <v>4.059</v>
+      </c>
+      <c r="E1906">
+        <v>4.071</v>
+      </c>
+      <c r="F1906">
+        <v>31158.32</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:6">
+      <c r="A1907" s="2">
+        <v>45539.375</v>
+      </c>
+      <c r="B1907">
+        <v>4.069</v>
+      </c>
+      <c r="C1907">
+        <v>4.078</v>
+      </c>
+      <c r="D1907">
+        <v>4.061</v>
+      </c>
+      <c r="E1907">
+        <v>4.07</v>
+      </c>
+      <c r="F1907">
+        <v>35892.2</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:6">
+      <c r="A1908" s="2">
+        <v>45539.39583333334</v>
+      </c>
+      <c r="B1908">
+        <v>4.07</v>
+      </c>
+      <c r="C1908">
+        <v>4.071</v>
+      </c>
+      <c r="D1908">
+        <v>4.046</v>
+      </c>
+      <c r="E1908">
+        <v>4.047</v>
+      </c>
+      <c r="F1908">
+        <v>19755.08</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:6">
+      <c r="A1909" s="2">
+        <v>45539.41666666666</v>
+      </c>
+      <c r="B1909">
+        <v>4.048</v>
+      </c>
+      <c r="C1909">
+        <v>4.055</v>
+      </c>
+      <c r="D1909">
+        <v>4.027</v>
+      </c>
+      <c r="E1909">
+        <v>4.042</v>
+      </c>
+      <c r="F1909">
+        <v>43664.57</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:6">
+      <c r="A1910" s="2">
+        <v>45539.4375</v>
+      </c>
+      <c r="B1910">
+        <v>4.042</v>
+      </c>
+      <c r="C1910">
+        <v>4.047</v>
+      </c>
+      <c r="D1910">
+        <v>4.014</v>
+      </c>
+      <c r="E1910">
+        <v>4.015</v>
+      </c>
+      <c r="F1910">
+        <v>30320.98</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:6">
+      <c r="A1911" s="2">
+        <v>45539.45833333334</v>
+      </c>
+      <c r="B1911">
+        <v>4.014</v>
+      </c>
+      <c r="C1911">
+        <v>4.033</v>
+      </c>
+      <c r="D1911">
+        <v>4.014</v>
+      </c>
+      <c r="E1911">
+        <v>4.021</v>
+      </c>
+      <c r="F1911">
+        <v>39865.12</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:6">
+      <c r="A1912" s="2">
+        <v>45539.47916666666</v>
+      </c>
+      <c r="B1912">
+        <v>4.022</v>
+      </c>
+      <c r="C1912">
+        <v>4.032</v>
+      </c>
+      <c r="D1912">
+        <v>4.012</v>
+      </c>
+      <c r="E1912">
+        <v>4.015</v>
+      </c>
+      <c r="F1912">
+        <v>23811.16</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:6">
+      <c r="A1913" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1913">
+        <v>4.015</v>
+      </c>
+      <c r="C1913">
+        <v>4.028</v>
+      </c>
+      <c r="D1913">
+        <v>4.005</v>
+      </c>
+      <c r="E1913">
+        <v>4.021</v>
+      </c>
+      <c r="F1913">
+        <v>46929.28</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:6">
+      <c r="A1914" s="2">
+        <v>45539.52083333334</v>
+      </c>
+      <c r="B1914">
+        <v>4.021</v>
+      </c>
+      <c r="C1914">
+        <v>4.045</v>
+      </c>
+      <c r="D1914">
+        <v>4.013</v>
+      </c>
+      <c r="E1914">
+        <v>4.027</v>
+      </c>
+      <c r="F1914">
+        <v>37773.65</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:6">
+      <c r="A1915" s="2">
+        <v>45539.54166666666</v>
+      </c>
+      <c r="B1915">
+        <v>4.028</v>
+      </c>
+      <c r="C1915">
+        <v>4.029</v>
+      </c>
+      <c r="D1915">
+        <v>4.01</v>
+      </c>
+      <c r="E1915">
+        <v>4.014</v>
+      </c>
+      <c r="F1915">
+        <v>34091.57</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:6">
+      <c r="A1916" s="2">
+        <v>45539.5625</v>
+      </c>
+      <c r="B1916">
+        <v>4.015</v>
+      </c>
+      <c r="C1916">
+        <v>4.034</v>
+      </c>
+      <c r="D1916">
+        <v>4.009</v>
+      </c>
+      <c r="E1916">
+        <v>4.024</v>
+      </c>
+      <c r="F1916">
+        <v>68994.67999999999</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:6">
+      <c r="A1917" s="2">
+        <v>45539.58333333334</v>
+      </c>
+      <c r="B1917">
+        <v>4.024</v>
+      </c>
+      <c r="C1917">
+        <v>4.046</v>
+      </c>
+      <c r="D1917">
+        <v>4.004</v>
+      </c>
+      <c r="E1917">
+        <v>4.015</v>
+      </c>
+      <c r="F1917">
+        <v>139135.58</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:6">
+      <c r="A1918" s="2">
+        <v>45539.60416666666</v>
+      </c>
+      <c r="B1918">
+        <v>4.016</v>
+      </c>
+      <c r="C1918">
+        <v>4.15</v>
+      </c>
+      <c r="D1918">
+        <v>4.014</v>
+      </c>
+      <c r="E1918">
+        <v>4.128</v>
+      </c>
+      <c r="F1918">
+        <v>507436.92</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:6">
+      <c r="A1919" s="2">
+        <v>45539.625</v>
+      </c>
+      <c r="B1919">
+        <v>4.128</v>
+      </c>
+      <c r="C1919">
+        <v>4.145</v>
+      </c>
+      <c r="D1919">
+        <v>4.097</v>
+      </c>
+      <c r="E1919">
+        <v>4.116</v>
+      </c>
+      <c r="F1919">
+        <v>206508.37</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:6">
+      <c r="A1920" s="2">
+        <v>45539.64583333334</v>
+      </c>
+      <c r="B1920">
+        <v>4.116</v>
+      </c>
+      <c r="C1920">
+        <v>4.162</v>
+      </c>
+      <c r="D1920">
+        <v>4.111</v>
+      </c>
+      <c r="E1920">
+        <v>4.157</v>
+      </c>
+      <c r="F1920">
+        <v>167581.97</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:6">
+      <c r="A1921" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1921">
+        <v>4.156</v>
+      </c>
+      <c r="C1921">
+        <v>4.18</v>
+      </c>
+      <c r="D1921">
+        <v>4.139</v>
+      </c>
+      <c r="E1921">
+        <v>4.179</v>
+      </c>
+      <c r="F1921">
+        <v>83141.3</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:6">
+      <c r="A1922" s="2">
+        <v>45539.6875</v>
+      </c>
+      <c r="B1922">
+        <v>4.179</v>
+      </c>
+      <c r="C1922">
+        <v>4.197</v>
+      </c>
+      <c r="D1922">
+        <v>4.171</v>
+      </c>
+      <c r="E1922">
+        <v>4.177</v>
+      </c>
+      <c r="F1922">
+        <v>90570.31</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:6">
+      <c r="A1923" s="2">
+        <v>45539.70833333334</v>
+      </c>
+      <c r="B1923">
+        <v>4.177</v>
+      </c>
+      <c r="C1923">
+        <v>4.178</v>
+      </c>
+      <c r="D1923">
+        <v>4.149</v>
+      </c>
+      <c r="E1923">
+        <v>4.154</v>
+      </c>
+      <c r="F1923">
+        <v>48445.62</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:6">
+      <c r="A1924" s="2">
+        <v>45539.72916666666</v>
+      </c>
+      <c r="B1924">
+        <v>4.154</v>
+      </c>
+      <c r="C1924">
+        <v>4.158</v>
+      </c>
+      <c r="D1924">
+        <v>4.132</v>
+      </c>
+      <c r="E1924">
+        <v>4.133</v>
+      </c>
+      <c r="F1924">
+        <v>57742.57</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:6">
+      <c r="A1925" s="2">
+        <v>45539.75</v>
+      </c>
+      <c r="B1925">
+        <v>4.134</v>
+      </c>
+      <c r="C1925">
+        <v>4.143</v>
+      </c>
+      <c r="D1925">
+        <v>4.106</v>
+      </c>
+      <c r="E1925">
+        <v>4.12</v>
+      </c>
+      <c r="F1925">
+        <v>97779.39</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:6">
+      <c r="A1926" s="2">
+        <v>45539.77083333334</v>
+      </c>
+      <c r="B1926">
+        <v>4.119</v>
+      </c>
+      <c r="C1926">
+        <v>4.131</v>
+      </c>
+      <c r="D1926">
+        <v>4.095</v>
+      </c>
+      <c r="E1926">
+        <v>4.105</v>
+      </c>
+      <c r="F1926">
+        <v>63823.87</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:6">
+      <c r="A1927" s="2">
+        <v>45539.79166666666</v>
+      </c>
+      <c r="B1927">
+        <v>4.105</v>
+      </c>
+      <c r="C1927">
+        <v>4.125</v>
+      </c>
+      <c r="D1927">
+        <v>4.102</v>
+      </c>
+      <c r="E1927">
+        <v>4.116</v>
+      </c>
+      <c r="F1927">
+        <v>43905.33</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:6">
+      <c r="A1928" s="2">
+        <v>45539.8125</v>
+      </c>
+      <c r="B1928">
+        <v>4.116</v>
+      </c>
+      <c r="C1928">
+        <v>4.117</v>
+      </c>
+      <c r="D1928">
+        <v>4.103</v>
+      </c>
+      <c r="E1928">
+        <v>4.112</v>
+      </c>
+      <c r="F1928">
+        <v>9217.43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
